--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/40/Output_22_17.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/40/Output_22_17.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1409478.16518081</v>
+        <v>-1410177.144362126</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>590120.9651681855</v>
+        <v>590120.9651681856</v>
       </c>
     </row>
     <row r="9">
@@ -1379,61 +1379,61 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="n">
         <v>120.4693833830704</v>
       </c>
-      <c r="G11" t="n">
+      <c r="H11" t="n">
+        <v>120.4693833830704</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>0</v>
+      </c>
+      <c r="R11" t="n">
+        <v>0</v>
+      </c>
+      <c r="S11" t="n">
+        <v>0</v>
+      </c>
+      <c r="T11" t="n">
+        <v>0</v>
+      </c>
+      <c r="U11" t="n">
+        <v>0</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="n">
+        <v>0</v>
+      </c>
+      <c r="X11" t="n">
         <v>106.1094328838083</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0</v>
-      </c>
-      <c r="O11" t="n">
-        <v>0</v>
-      </c>
-      <c r="P11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>0</v>
-      </c>
-      <c r="R11" t="n">
-        <v>0</v>
-      </c>
-      <c r="S11" t="n">
-        <v>0</v>
-      </c>
-      <c r="T11" t="n">
-        <v>0</v>
-      </c>
-      <c r="U11" t="n">
-        <v>0</v>
-      </c>
-      <c r="V11" t="n">
-        <v>0</v>
-      </c>
-      <c r="W11" t="n">
-        <v>0</v>
-      </c>
-      <c r="X11" t="n">
-        <v>120.4693833830704</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -1446,10 +1446,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>120.4693833830704</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>120.4693833830704</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
@@ -1461,10 +1461,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>5.462160722623098</v>
       </c>
       <c r="H12" t="n">
-        <v>107.7293247704514</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1494,28 +1494,28 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>77.12411314855667</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>120.4693833830704</v>
       </c>
       <c r="U12" t="n">
-        <v>39.20145542365626</v>
+        <v>21.8341295501654</v>
       </c>
       <c r="V12" t="n">
-        <v>120.4693833830704</v>
+        <v>29.10430198823022</v>
       </c>
       <c r="W12" t="n">
-        <v>120.4693833830704</v>
+        <v>47.18491769857513</v>
       </c>
       <c r="X12" t="n">
-        <v>1.657200557053272</v>
+        <v>1.657200557053358</v>
       </c>
       <c r="Y12" t="n">
-        <v>0.8667223671610316</v>
+        <v>0.8667223671611168</v>
       </c>
     </row>
     <row r="13">
@@ -1531,7 +1531,7 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>63.18147966914736</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -1576,25 +1576,25 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>15.41821348478684</v>
+        <v>15.41821348478692</v>
       </c>
       <c r="T13" t="n">
-        <v>24.51429709665595</v>
+        <v>24.51429709665603</v>
       </c>
       <c r="U13" t="n">
-        <v>83.2348999799359</v>
+        <v>83.23489997993599</v>
       </c>
       <c r="V13" t="n">
-        <v>50.13192201551416</v>
+        <v>50.13192201551425</v>
       </c>
       <c r="W13" t="n">
-        <v>83.28814783599054</v>
+        <v>83.28814783599063</v>
       </c>
       <c r="X13" t="n">
-        <v>86.51741055003225</v>
+        <v>23.33593088088435</v>
       </c>
       <c r="Y13" t="n">
-        <v>15.94424481634323</v>
+        <v>15.94424481634331</v>
       </c>
     </row>
     <row r="14">
@@ -1604,25 +1604,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>120.4693833830703</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>120.4693833830704</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>106.1094328838083</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>120.4693833830703</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>120.4693833830703</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1667,10 +1667,10 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>120.4693833830704</v>
       </c>
       <c r="X14" t="n">
-        <v>106.1094328838083</v>
+        <v>120.4693833830704</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -1689,10 +1689,10 @@
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>26.825630163831</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>120.4693833830704</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
@@ -1704,7 +1704,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>76.75987979576298</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1734,19 +1734,19 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>74.48120797136387</v>
       </c>
       <c r="T15" t="n">
         <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>120.4693833830703</v>
+        <v>120.4693833830704</v>
       </c>
       <c r="V15" t="n">
-        <v>120.4693833830703</v>
+        <v>29.10430198823013</v>
       </c>
       <c r="W15" t="n">
-        <v>120.4693833830703</v>
+        <v>120.4693833830704</v>
       </c>
       <c r="X15" t="n">
         <v>1.657200557053272</v>
@@ -1810,13 +1810,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>63.18147966914798</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>15.41821348478684</v>
       </c>
       <c r="T16" t="n">
-        <v>24.51429709665595</v>
+        <v>87.69577676580393</v>
       </c>
       <c r="U16" t="n">
         <v>83.2348999799359</v>
@@ -1841,25 +1841,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>55.18318846887564</v>
+        <v>55.1831884688757</v>
       </c>
       <c r="C17" t="n">
-        <v>38.45187415642323</v>
+        <v>38.45187415642329</v>
       </c>
       <c r="D17" t="n">
-        <v>28.07151123207899</v>
+        <v>28.07151123207905</v>
       </c>
       <c r="E17" t="n">
-        <v>54.58481423276805</v>
+        <v>54.58481423276811</v>
       </c>
       <c r="F17" t="n">
-        <v>78.76064195802144</v>
+        <v>78.76064195802149</v>
       </c>
       <c r="G17" t="n">
-        <v>85.79261728707201</v>
+        <v>85.79261728707205</v>
       </c>
       <c r="H17" t="n">
-        <v>4.193812382378326</v>
+        <v>4.193812382378357</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1904,13 +1904,13 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>21.99689547803519</v>
+        <v>21.99689547803524</v>
       </c>
       <c r="X17" t="n">
-        <v>42.32837760864999</v>
+        <v>42.32837760865004</v>
       </c>
       <c r="Y17" t="n">
-        <v>58.15385022871641</v>
+        <v>58.15385022871646</v>
       </c>
     </row>
     <row r="18">
@@ -1926,53 +1926,53 @@
         <v>0</v>
       </c>
       <c r="D18" t="n">
+        <v>0</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" t="n">
         <v>120.4693833830703</v>
       </c>
-      <c r="E18" t="n">
+      <c r="H18" t="n">
+        <v>107.7293247704514</v>
+      </c>
+      <c r="I18" t="n">
+        <v>76.75987979576298</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0</v>
+      </c>
+      <c r="O18" t="n">
+        <v>0</v>
+      </c>
+      <c r="P18" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>0</v>
+      </c>
+      <c r="R18" t="n">
+        <v>0</v>
+      </c>
+      <c r="S18" t="n">
         <v>120.4693833830703</v>
       </c>
-      <c r="F18" t="n">
-        <v>120.4693833830703</v>
-      </c>
-      <c r="G18" t="n">
-        <v>28.98531973525163</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
-      <c r="J18" t="n">
-        <v>0</v>
-      </c>
-      <c r="K18" t="n">
-        <v>0</v>
-      </c>
-      <c r="L18" t="n">
-        <v>0</v>
-      </c>
-      <c r="M18" t="n">
-        <v>0</v>
-      </c>
-      <c r="N18" t="n">
-        <v>0</v>
-      </c>
-      <c r="O18" t="n">
-        <v>0</v>
-      </c>
-      <c r="P18" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>0</v>
-      </c>
-      <c r="R18" t="n">
-        <v>77.12411314855667</v>
-      </c>
-      <c r="S18" t="n">
-        <v>0</v>
-      </c>
       <c r="T18" t="n">
         <v>0</v>
       </c>
@@ -1989,7 +1989,7 @@
         <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>42.0896117006642</v>
       </c>
     </row>
     <row r="19">
@@ -1999,67 +1999,67 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>118.1103690131182</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
+        <v>0</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0</v>
+      </c>
+      <c r="O19" t="n">
+        <v>0</v>
+      </c>
+      <c r="P19" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>59.89355583796828</v>
+      </c>
+      <c r="R19" t="n">
         <v>120.4693833830703</v>
       </c>
-      <c r="D19" t="n">
-        <v>0</v>
-      </c>
-      <c r="E19" t="n">
+      <c r="S19" t="n">
+        <v>0</v>
+      </c>
+      <c r="T19" t="n">
+        <v>0</v>
+      </c>
+      <c r="U19" t="n">
+        <v>58.21681317514989</v>
+      </c>
+      <c r="V19" t="n">
         <v>120.4693833830703</v>
-      </c>
-      <c r="F19" t="n">
-        <v>0</v>
-      </c>
-      <c r="G19" t="n">
-        <v>0</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>0</v>
-      </c>
-      <c r="K19" t="n">
-        <v>0</v>
-      </c>
-      <c r="L19" t="n">
-        <v>0</v>
-      </c>
-      <c r="M19" t="n">
-        <v>0</v>
-      </c>
-      <c r="N19" t="n">
-        <v>0</v>
-      </c>
-      <c r="O19" t="n">
-        <v>0</v>
-      </c>
-      <c r="P19" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>0</v>
-      </c>
-      <c r="R19" t="n">
-        <v>0</v>
-      </c>
-      <c r="S19" t="n">
-        <v>0</v>
-      </c>
-      <c r="T19" t="n">
-        <v>0</v>
-      </c>
-      <c r="U19" t="n">
-        <v>0</v>
-      </c>
-      <c r="V19" t="n">
-        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -2078,25 +2078,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>55.1831884688757</v>
+        <v>55.18318846887564</v>
       </c>
       <c r="C20" t="n">
-        <v>38.45187415642329</v>
+        <v>38.45187415642323</v>
       </c>
       <c r="D20" t="n">
-        <v>28.07151123207905</v>
+        <v>28.07151123207899</v>
       </c>
       <c r="E20" t="n">
-        <v>54.58481423276811</v>
+        <v>54.58481423276805</v>
       </c>
       <c r="F20" t="n">
-        <v>78.76064195802149</v>
+        <v>78.76064195802144</v>
       </c>
       <c r="G20" t="n">
-        <v>85.79261728707205</v>
+        <v>85.79261728707201</v>
       </c>
       <c r="H20" t="n">
-        <v>4.193812382378383</v>
+        <v>4.193812382378326</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2141,13 +2141,13 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>21.99689547803524</v>
+        <v>21.99689547803519</v>
       </c>
       <c r="X20" t="n">
-        <v>42.32837760865004</v>
+        <v>42.32837760864999</v>
       </c>
       <c r="Y20" t="n">
-        <v>58.15385022871646</v>
+        <v>58.15385022871641</v>
       </c>
     </row>
     <row r="21">
@@ -2166,10 +2166,10 @@
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>42.0896117006642</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>120.4693833830703</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
         <v>120.4693833830703</v>
@@ -2178,7 +2178,7 @@
         <v>107.7293247704514</v>
       </c>
       <c r="I21" t="n">
-        <v>76.75987979576298</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2208,10 +2208,10 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>120.4693833830703</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>118.8494914964272</v>
       </c>
       <c r="U21" t="n">
         <v>0</v>
@@ -2236,7 +2236,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>120.4693833830703</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2257,7 +2257,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>118.1103690131182</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2290,19 +2290,19 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>120.4693833830703</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>120.4693833830703</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>120.4693833830703</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>118.1103690131182</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2315,25 +2315,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>55.1831884688757</v>
+        <v>55.18318846887564</v>
       </c>
       <c r="C23" t="n">
-        <v>38.45187415642329</v>
+        <v>38.45187415642323</v>
       </c>
       <c r="D23" t="n">
-        <v>28.07151123207905</v>
+        <v>28.07151123207899</v>
       </c>
       <c r="E23" t="n">
-        <v>54.58481423276811</v>
+        <v>54.58481423276805</v>
       </c>
       <c r="F23" t="n">
-        <v>78.76064195802149</v>
+        <v>78.76064195802144</v>
       </c>
       <c r="G23" t="n">
-        <v>85.79261728707205</v>
+        <v>85.79261728707201</v>
       </c>
       <c r="H23" t="n">
-        <v>4.193812382378383</v>
+        <v>4.193812382378326</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2378,13 +2378,13 @@
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>21.99689547803524</v>
+        <v>21.99689547803519</v>
       </c>
       <c r="X23" t="n">
-        <v>42.32837760865004</v>
+        <v>42.32837760864999</v>
       </c>
       <c r="Y23" t="n">
-        <v>58.15385022871646</v>
+        <v>58.15385022871641</v>
       </c>
     </row>
     <row r="24">
@@ -2394,28 +2394,28 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>120.4693833830705</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>120.4693833830705</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>120.4693833830705</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>106.1094328838084</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>72.69482332255903</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>76.75987979576298</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2442,13 +2442,13 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>77.12411314855667</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>120.4693833830704</v>
       </c>
       <c r="U24" t="n">
         <v>0</v>
@@ -2463,7 +2463,7 @@
         <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>120.4693833830704</v>
       </c>
     </row>
     <row r="25">
@@ -2485,7 +2485,7 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>120.4693833830704</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2494,7 +2494,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>120.4693833830705</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>72.06468585899249</v>
@@ -2530,13 +2530,13 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>106.6215106992276</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>106.6215106992277</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -2558,22 +2558,22 @@
         <v>204.9395090314116</v>
       </c>
       <c r="D26" t="n">
-        <v>194.5591461070674</v>
+        <v>194.5591461070673</v>
       </c>
       <c r="E26" t="n">
-        <v>221.0724491077565</v>
+        <v>221.0724491077564</v>
       </c>
       <c r="F26" t="n">
         <v>245.2482768330098</v>
       </c>
       <c r="G26" t="n">
-        <v>252.2802521620604</v>
+        <v>252.2802521620603</v>
       </c>
       <c r="H26" t="n">
-        <v>170.6814472573667</v>
+        <v>170.6814472573666</v>
       </c>
       <c r="I26" t="n">
-        <v>22.78727869617319</v>
+        <v>22.78727869617313</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,22 +2603,22 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>31.76645030977474</v>
+        <v>31.76645030977468</v>
       </c>
       <c r="T26" t="n">
-        <v>58.60415438260577</v>
+        <v>58.60415438260571</v>
       </c>
       <c r="U26" t="n">
-        <v>89.38986280147427</v>
+        <v>89.38986280147421</v>
       </c>
       <c r="V26" t="n">
         <v>166.4876348749883</v>
       </c>
       <c r="W26" t="n">
-        <v>188.4845303530236</v>
+        <v>188.4845303530235</v>
       </c>
       <c r="X26" t="n">
-        <v>208.8160124836384</v>
+        <v>208.8160124836383</v>
       </c>
       <c r="Y26" t="n">
         <v>224.6414851037048</v>
@@ -2634,7 +2634,7 @@
         <v>165.3721256103448</v>
       </c>
       <c r="C27" t="n">
-        <v>171.025583927401</v>
+        <v>46.48001139533118</v>
       </c>
       <c r="D27" t="n">
         <v>146.1124235746456</v>
@@ -2643,16 +2643,16 @@
         <v>156.0334337071738</v>
       </c>
       <c r="F27" t="n">
-        <v>143.5062320835493</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>129.3017226269083</v>
+        <v>135.7402095277565</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>107.7293247704514</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>76.75987979576298</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2679,19 +2679,19 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>77.12411314855667</v>
       </c>
       <c r="S27" t="n">
-        <v>1.659413800633613</v>
+        <v>1.659413800633556</v>
       </c>
       <c r="T27" t="n">
-        <v>35.19625393430936</v>
+        <v>197.2418405818404</v>
       </c>
       <c r="U27" t="n">
         <v>224.6385586015903</v>
       </c>
       <c r="V27" t="n">
-        <v>231.9087310396551</v>
+        <v>69.86314439212407</v>
       </c>
       <c r="W27" t="n">
         <v>249.98934675</v>
@@ -2710,10 +2710,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>18.03810484315281</v>
+        <v>18.03810484315275</v>
       </c>
       <c r="C28" t="n">
-        <v>5.290966283671338</v>
+        <v>5.290966283671281</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2725,7 +2725,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>5.606744021349535</v>
+        <v>5.606744021349478</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2758,28 +2758,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0.6775668401479571</v>
+        <v>0.6775668401479003</v>
       </c>
       <c r="S28" t="n">
-        <v>56.17705588868083</v>
+        <v>56.17705588868078</v>
       </c>
       <c r="T28" t="n">
-        <v>65.27313950054995</v>
+        <v>65.27313950054989</v>
       </c>
       <c r="U28" t="n">
-        <v>123.9937423838299</v>
+        <v>123.9937423838298</v>
       </c>
       <c r="V28" t="n">
-        <v>90.89076441940816</v>
+        <v>90.8907644194081</v>
       </c>
       <c r="W28" t="n">
         <v>124.0469902398845</v>
       </c>
       <c r="X28" t="n">
-        <v>64.09477328477826</v>
+        <v>64.0947732847782</v>
       </c>
       <c r="Y28" t="n">
-        <v>56.70308722023722</v>
+        <v>56.70308722023717</v>
       </c>
     </row>
     <row r="29">
@@ -2789,28 +2789,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>221.6708233438641</v>
+        <v>221.670823343864</v>
       </c>
       <c r="C29" t="n">
-        <v>204.9395090314117</v>
+        <v>204.9395090314116</v>
       </c>
       <c r="D29" t="n">
-        <v>194.5591461070674</v>
+        <v>194.5591461070673</v>
       </c>
       <c r="E29" t="n">
-        <v>221.0724491077565</v>
+        <v>221.0724491077564</v>
       </c>
       <c r="F29" t="n">
-        <v>245.2482768330099</v>
+        <v>245.2482768330098</v>
       </c>
       <c r="G29" t="n">
-        <v>252.2802521620604</v>
+        <v>252.2802521620603</v>
       </c>
       <c r="H29" t="n">
-        <v>170.6814472573667</v>
+        <v>170.6814472573666</v>
       </c>
       <c r="I29" t="n">
-        <v>22.78727869617322</v>
+        <v>22.78727869617313</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,22 +2840,22 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>31.76645030977476</v>
+        <v>31.76645030977468</v>
       </c>
       <c r="T29" t="n">
-        <v>58.6041543826058</v>
+        <v>58.60415438260571</v>
       </c>
       <c r="U29" t="n">
-        <v>89.38986280147429</v>
+        <v>89.38986280147421</v>
       </c>
       <c r="V29" t="n">
-        <v>166.4876348749884</v>
+        <v>166.4876348749883</v>
       </c>
       <c r="W29" t="n">
-        <v>188.4845303530236</v>
+        <v>188.4845303530235</v>
       </c>
       <c r="X29" t="n">
-        <v>208.8160124836384</v>
+        <v>208.8160124836383</v>
       </c>
       <c r="Y29" t="n">
         <v>224.6414851037048</v>
@@ -2880,7 +2880,7 @@
         <v>156.0334337071738</v>
       </c>
       <c r="F30" t="n">
-        <v>143.5062320835493</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
         <v>135.7402095277565</v>
@@ -2916,28 +2916,28 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>77.12411314855667</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>163.7050004481646</v>
+        <v>1.659413800633556</v>
       </c>
       <c r="T30" t="n">
-        <v>197.2418405818404</v>
+        <v>149.8203811983271</v>
       </c>
       <c r="U30" t="n">
         <v>224.6385586015903</v>
       </c>
       <c r="V30" t="n">
-        <v>125.9025130715675</v>
+        <v>231.9087310396551</v>
       </c>
       <c r="W30" t="n">
-        <v>87.94376010246907</v>
+        <v>87.94376010246899</v>
       </c>
       <c r="X30" t="n">
-        <v>42.41604296094729</v>
+        <v>204.4616296084783</v>
       </c>
       <c r="Y30" t="n">
-        <v>41.62556477105505</v>
+        <v>203.671151418586</v>
       </c>
     </row>
     <row r="31">
@@ -2947,10 +2947,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>18.03810484315284</v>
+        <v>18.03810484315275</v>
       </c>
       <c r="C31" t="n">
-        <v>5.290966283671366</v>
+        <v>5.290966283671281</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -2962,7 +2962,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>5.606744021349563</v>
+        <v>5.606744021349478</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0.6775668401479855</v>
+        <v>0.6775668401479003</v>
       </c>
       <c r="S31" t="n">
-        <v>56.17705588868086</v>
+        <v>56.17705588868078</v>
       </c>
       <c r="T31" t="n">
-        <v>65.27313950054997</v>
+        <v>65.27313950054989</v>
       </c>
       <c r="U31" t="n">
-        <v>123.9937423838299</v>
+        <v>123.9937423838298</v>
       </c>
       <c r="V31" t="n">
-        <v>90.89076441940819</v>
+        <v>90.8907644194081</v>
       </c>
       <c r="W31" t="n">
-        <v>124.0469902398846</v>
+        <v>124.0469902398845</v>
       </c>
       <c r="X31" t="n">
-        <v>64.09477328477828</v>
+        <v>64.0947732847782</v>
       </c>
       <c r="Y31" t="n">
-        <v>56.70308722023725</v>
+        <v>56.70308722023717</v>
       </c>
     </row>
     <row r="32">
@@ -3032,7 +3032,7 @@
         <v>204.9395090314116</v>
       </c>
       <c r="D32" t="n">
-        <v>194.5591461070673</v>
+        <v>194.5591461070674</v>
       </c>
       <c r="E32" t="n">
         <v>221.0724491077564</v>
@@ -3041,13 +3041,13 @@
         <v>245.2482768330098</v>
       </c>
       <c r="G32" t="n">
-        <v>252.2802521620603</v>
+        <v>252.2802521620604</v>
       </c>
       <c r="H32" t="n">
         <v>170.6814472573667</v>
       </c>
       <c r="I32" t="n">
-        <v>22.78727869617313</v>
+        <v>22.78727869617316</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,22 +3077,22 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>31.76645030977468</v>
+        <v>31.76645030977471</v>
       </c>
       <c r="T32" t="n">
-        <v>58.60415438260571</v>
+        <v>58.60415438260574</v>
       </c>
       <c r="U32" t="n">
-        <v>89.38986280147421</v>
+        <v>89.38986280147424</v>
       </c>
       <c r="V32" t="n">
         <v>166.4876348749883</v>
       </c>
       <c r="W32" t="n">
-        <v>188.4845303530235</v>
+        <v>188.4845303530236</v>
       </c>
       <c r="X32" t="n">
-        <v>208.8160124836383</v>
+        <v>208.8160124836384</v>
       </c>
       <c r="Y32" t="n">
         <v>224.6414851037048</v>
@@ -3105,10 +3105,10 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>165.3721256103448</v>
+        <v>3.3265389628138</v>
       </c>
       <c r="C33" t="n">
-        <v>171.025583927401</v>
+        <v>8.979997279869963</v>
       </c>
       <c r="D33" t="n">
         <v>146.1124235746456</v>
@@ -3117,13 +3117,13 @@
         <v>156.0334337071738</v>
       </c>
       <c r="F33" t="n">
-        <v>143.5062320835493</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>135.7402095277565</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>107.7293247704514</v>
       </c>
       <c r="I33" t="n">
         <v>76.75987979576298</v>
@@ -3156,22 +3156,22 @@
         <v>77.12411314855667</v>
       </c>
       <c r="S33" t="n">
-        <v>139.1227301307533</v>
+        <v>163.7050004481646</v>
       </c>
       <c r="T33" t="n">
         <v>197.2418405818404</v>
       </c>
       <c r="U33" t="n">
-        <v>62.59297195405926</v>
+        <v>224.6385586015903</v>
       </c>
       <c r="V33" t="n">
-        <v>69.86314439212407</v>
+        <v>231.9087310396551</v>
       </c>
       <c r="W33" t="n">
         <v>249.98934675</v>
       </c>
       <c r="X33" t="n">
-        <v>204.4616296084783</v>
+        <v>79.91605707640875</v>
       </c>
       <c r="Y33" t="n">
         <v>203.671151418586</v>
@@ -3184,10 +3184,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>18.03810484315275</v>
+        <v>18.03810484315278</v>
       </c>
       <c r="C34" t="n">
-        <v>5.290966283671281</v>
+        <v>5.29096628367131</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3199,7 +3199,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>5.606744021349478</v>
+        <v>5.606744021349506</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0.6775668401479003</v>
+        <v>0.6775668401479287</v>
       </c>
       <c r="S34" t="n">
-        <v>56.17705588868078</v>
+        <v>56.1770558886808</v>
       </c>
       <c r="T34" t="n">
-        <v>65.27313950054989</v>
+        <v>65.27313950054992</v>
       </c>
       <c r="U34" t="n">
-        <v>123.9937423838298</v>
+        <v>123.9937423838299</v>
       </c>
       <c r="V34" t="n">
-        <v>90.8907644194081</v>
+        <v>90.89076441940813</v>
       </c>
       <c r="W34" t="n">
         <v>124.0469902398845</v>
       </c>
       <c r="X34" t="n">
-        <v>64.0947732847782</v>
+        <v>64.09477328477823</v>
       </c>
       <c r="Y34" t="n">
-        <v>56.70308722023717</v>
+        <v>56.70308722023719</v>
       </c>
     </row>
     <row r="35">
@@ -3269,7 +3269,7 @@
         <v>173.1730587216369</v>
       </c>
       <c r="D35" t="n">
-        <v>162.7926957972926</v>
+        <v>162.7926957972927</v>
       </c>
       <c r="E35" t="n">
         <v>189.3059987979817</v>
@@ -3278,7 +3278,7 @@
         <v>213.4818265232351</v>
       </c>
       <c r="G35" t="n">
-        <v>220.5138018522856</v>
+        <v>220.5138018522857</v>
       </c>
       <c r="H35" t="n">
         <v>138.914996947592</v>
@@ -3317,10 +3317,10 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>26.837704072831</v>
+        <v>26.83770407283103</v>
       </c>
       <c r="U35" t="n">
-        <v>57.6234124916995</v>
+        <v>57.62341249169953</v>
       </c>
       <c r="V35" t="n">
         <v>134.7211845652136</v>
@@ -3332,7 +3332,7 @@
         <v>177.0495621738636</v>
       </c>
       <c r="Y35" t="n">
-        <v>192.87503479393</v>
+        <v>192.8750347939301</v>
       </c>
     </row>
     <row r="36">
@@ -3345,7 +3345,7 @@
         <v>165.3721256103448</v>
       </c>
       <c r="C36" t="n">
-        <v>171.025583927401</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
         <v>146.1124235746456</v>
@@ -3357,13 +3357,13 @@
         <v>143.5062320835493</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>135.7402095277565</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>76.75987979576298</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3390,22 +3390,22 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>77.12411314855667</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>163.7050004481646</v>
       </c>
       <c r="T36" t="n">
-        <v>90.17543685406021</v>
+        <v>197.2418405818404</v>
       </c>
       <c r="U36" t="n">
         <v>224.6385586015903</v>
       </c>
       <c r="V36" t="n">
-        <v>38.09669408234936</v>
+        <v>160.491935064313</v>
       </c>
       <c r="W36" t="n">
-        <v>249.98934675</v>
+        <v>56.1773097926943</v>
       </c>
       <c r="X36" t="n">
         <v>204.4616296084783</v>
@@ -3472,25 +3472,25 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>24.41060557890606</v>
+        <v>24.41060557890609</v>
       </c>
       <c r="T37" t="n">
-        <v>33.50668919077518</v>
+        <v>33.50668919077521</v>
       </c>
       <c r="U37" t="n">
-        <v>92.22729207405513</v>
+        <v>92.22729207405516</v>
       </c>
       <c r="V37" t="n">
-        <v>59.12431410963339</v>
+        <v>59.35904911994664</v>
       </c>
       <c r="W37" t="n">
-        <v>92.28053993010977</v>
+        <v>92.2805399301098</v>
       </c>
       <c r="X37" t="n">
-        <v>32.32832297500349</v>
+        <v>32.32832297500352</v>
       </c>
       <c r="Y37" t="n">
-        <v>25.17137192077579</v>
+        <v>24.93663691046248</v>
       </c>
     </row>
     <row r="38">
@@ -3506,7 +3506,7 @@
         <v>173.1730587216369</v>
       </c>
       <c r="D38" t="n">
-        <v>162.7926957972927</v>
+        <v>162.7926957972926</v>
       </c>
       <c r="E38" t="n">
         <v>189.3059987979817</v>
@@ -3515,7 +3515,7 @@
         <v>213.4818265232351</v>
       </c>
       <c r="G38" t="n">
-        <v>220.5138018522857</v>
+        <v>220.5138018522856</v>
       </c>
       <c r="H38" t="n">
         <v>138.914996947592</v>
@@ -3554,10 +3554,10 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>26.83770407283103</v>
+        <v>26.837704072831</v>
       </c>
       <c r="U38" t="n">
-        <v>57.62341249169953</v>
+        <v>57.6234124916995</v>
       </c>
       <c r="V38" t="n">
         <v>134.7211845652136</v>
@@ -3569,7 +3569,7 @@
         <v>177.0495621738636</v>
       </c>
       <c r="Y38" t="n">
-        <v>192.8750347939301</v>
+        <v>192.87503479393</v>
       </c>
     </row>
     <row r="39">
@@ -3579,13 +3579,13 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>165.3721256103448</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
         <v>171.025583927401</v>
       </c>
       <c r="D39" t="n">
-        <v>146.1124235746456</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
         <v>156.0334337071738</v>
@@ -3594,13 +3594,13 @@
         <v>143.5062320835493</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>135.7402095277565</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>107.7293247704514</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>76.75987979576298</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3627,13 +3627,13 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>77.12411314855667</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>47.89373181140354</v>
       </c>
       <c r="T39" t="n">
-        <v>137.1925134934756</v>
+        <v>3.429803624534595</v>
       </c>
       <c r="U39" t="n">
         <v>224.6385586015903</v>
@@ -3709,25 +3709,25 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>24.64534058921929</v>
+        <v>24.41060557890606</v>
       </c>
       <c r="T40" t="n">
-        <v>33.50668919077521</v>
+        <v>33.50668919077518</v>
       </c>
       <c r="U40" t="n">
-        <v>92.22729207405516</v>
+        <v>92.22729207405513</v>
       </c>
       <c r="V40" t="n">
-        <v>59.12431410963342</v>
+        <v>59.12431410963339</v>
       </c>
       <c r="W40" t="n">
-        <v>92.2805399301098</v>
+        <v>92.28053993010977</v>
       </c>
       <c r="X40" t="n">
-        <v>32.32832297500352</v>
+        <v>32.32832297500349</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.93663691046248</v>
+        <v>25.17137192077579</v>
       </c>
     </row>
     <row r="41">
@@ -3743,7 +3743,7 @@
         <v>173.1730587216369</v>
       </c>
       <c r="D41" t="n">
-        <v>162.7926957972927</v>
+        <v>162.7926957972926</v>
       </c>
       <c r="E41" t="n">
         <v>189.3059987979817</v>
@@ -3752,7 +3752,7 @@
         <v>213.4818265232351</v>
       </c>
       <c r="G41" t="n">
-        <v>220.5138018522857</v>
+        <v>220.5138018522856</v>
       </c>
       <c r="H41" t="n">
         <v>138.914996947592</v>
@@ -3791,22 +3791,22 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>26.83770407283106</v>
+        <v>26.83770407283101</v>
       </c>
       <c r="U41" t="n">
-        <v>57.62341249169955</v>
+        <v>57.6234124916995</v>
       </c>
       <c r="V41" t="n">
         <v>134.7211845652136</v>
       </c>
       <c r="W41" t="n">
-        <v>156.7180800432489</v>
+        <v>156.7180800432488</v>
       </c>
       <c r="X41" t="n">
-        <v>177.0495621738637</v>
+        <v>177.0495621738636</v>
       </c>
       <c r="Y41" t="n">
-        <v>192.8750347939301</v>
+        <v>192.87503479393</v>
       </c>
     </row>
     <row r="42">
@@ -3822,16 +3822,16 @@
         <v>171.025583927401</v>
       </c>
       <c r="D42" t="n">
-        <v>146.1124235746456</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
         <v>156.0334337071738</v>
       </c>
       <c r="F42" t="n">
-        <v>143.5062320835493</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>135.7402095277565</v>
       </c>
       <c r="H42" t="n">
         <v>107.7293247704514</v>
@@ -3867,10 +3867,10 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>143.0855422600327</v>
+        <v>103.1519514331653</v>
       </c>
       <c r="T42" t="n">
-        <v>3.429803624534652</v>
+        <v>197.2418405818404</v>
       </c>
       <c r="U42" t="n">
         <v>224.6385586015903</v>
@@ -3879,13 +3879,13 @@
         <v>231.9087310396551</v>
       </c>
       <c r="W42" t="n">
-        <v>249.98934675</v>
+        <v>56.17730979269427</v>
       </c>
       <c r="X42" t="n">
         <v>204.4616296084783</v>
       </c>
       <c r="Y42" t="n">
-        <v>9.859114461280313</v>
+        <v>203.671151418586</v>
       </c>
     </row>
     <row r="43">
@@ -3940,31 +3940,31 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>0.2347350103133254</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>24.64534058921906</v>
+        <v>24.41060557890606</v>
       </c>
       <c r="T43" t="n">
-        <v>33.50668919077523</v>
+        <v>33.50668919077518</v>
       </c>
       <c r="U43" t="n">
-        <v>92.22729207405519</v>
+        <v>92.22729207405513</v>
       </c>
       <c r="V43" t="n">
-        <v>59.12431410963345</v>
+        <v>59.12431410963339</v>
       </c>
       <c r="W43" t="n">
-        <v>92.28053993010982</v>
+        <v>92.28053993010977</v>
       </c>
       <c r="X43" t="n">
-        <v>32.32832297500354</v>
+        <v>32.32832297500349</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.93663691046251</v>
+        <v>24.93663691046245</v>
       </c>
     </row>
     <row r="44">
@@ -4053,13 +4053,13 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>165.3721256103448</v>
+        <v>17.43571204050851</v>
       </c>
       <c r="C45" t="n">
-        <v>171.025583927401</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>146.1124235746456</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
         <v>0</v>
@@ -4068,7 +4068,7 @@
         <v>143.5062320835493</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>135.7402095277565</v>
       </c>
       <c r="H45" t="n">
         <v>107.7293247704514</v>
@@ -4101,13 +4101,13 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>77.12411314855666</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>163.7050004481646</v>
       </c>
       <c r="T45" t="n">
-        <v>108.7367426344351</v>
+        <v>197.2418405818404</v>
       </c>
       <c r="U45" t="n">
         <v>224.6385586015903</v>
@@ -4177,13 +4177,13 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>0.2347350103132129</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>24.64534058921934</v>
+        <v>24.41060557890612</v>
       </c>
       <c r="T46" t="n">
         <v>33.50668919077523</v>
@@ -5015,22 +5015,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>238.5050418493109</v>
+        <v>253.0100423536161</v>
       </c>
       <c r="C11" t="n">
-        <v>238.5050418493109</v>
+        <v>253.0100423536161</v>
       </c>
       <c r="D11" t="n">
-        <v>238.5050418493109</v>
+        <v>253.0100423536161</v>
       </c>
       <c r="E11" t="n">
-        <v>238.5050418493109</v>
+        <v>253.0100423536161</v>
       </c>
       <c r="F11" t="n">
-        <v>116.8187960078257</v>
+        <v>253.0100423536161</v>
       </c>
       <c r="G11" t="n">
-        <v>9.637550670645629</v>
+        <v>131.3237965121309</v>
       </c>
       <c r="H11" t="n">
         <v>9.637550670645629</v>
@@ -5045,19 +5045,19 @@
         <v>9.637550670645629</v>
       </c>
       <c r="L11" t="n">
-        <v>9.637550670645629</v>
+        <v>128.9022402198853</v>
       </c>
       <c r="M11" t="n">
-        <v>63.51757711628881</v>
+        <v>248.1669297691249</v>
       </c>
       <c r="N11" t="n">
-        <v>182.7822666655285</v>
+        <v>362.6128439830418</v>
       </c>
       <c r="O11" t="n">
-        <v>302.0469562147681</v>
+        <v>481.8775335322814</v>
       </c>
       <c r="P11" t="n">
-        <v>421.3116457640077</v>
+        <v>481.8775335322814</v>
       </c>
       <c r="Q11" t="n">
         <v>481.8775335322814</v>
@@ -5081,10 +5081,10 @@
         <v>481.8775335322814</v>
       </c>
       <c r="X11" t="n">
-        <v>360.1912876907962</v>
+        <v>374.6962881951013</v>
       </c>
       <c r="Y11" t="n">
-        <v>360.1912876907962</v>
+        <v>374.6962881951013</v>
       </c>
     </row>
     <row r="12">
@@ -5094,22 +5094,22 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>118.4550504387784</v>
+        <v>136.8411305753865</v>
       </c>
       <c r="C12" t="n">
-        <v>118.4550504387784</v>
+        <v>15.15488473390128</v>
       </c>
       <c r="D12" t="n">
-        <v>118.4550504387784</v>
+        <v>15.15488473390128</v>
       </c>
       <c r="E12" t="n">
-        <v>118.4550504387784</v>
+        <v>15.15488473390128</v>
       </c>
       <c r="F12" t="n">
-        <v>118.4550504387784</v>
+        <v>15.15488473390128</v>
       </c>
       <c r="G12" t="n">
-        <v>118.4550504387784</v>
+        <v>9.637550670645629</v>
       </c>
       <c r="H12" t="n">
         <v>9.637550670645629</v>
@@ -5118,22 +5118,22 @@
         <v>9.637550670645629</v>
       </c>
       <c r="J12" t="n">
-        <v>9.637550670645629</v>
+        <v>43.50084578695255</v>
       </c>
       <c r="K12" t="n">
-        <v>9.637550670645629</v>
+        <v>43.50084578695255</v>
       </c>
       <c r="L12" t="n">
-        <v>9.637550670645629</v>
+        <v>43.50084578695255</v>
       </c>
       <c r="M12" t="n">
-        <v>128.9022402198853</v>
+        <v>162.7655353361922</v>
       </c>
       <c r="N12" t="n">
-        <v>248.1669297691249</v>
+        <v>243.3481544338021</v>
       </c>
       <c r="O12" t="n">
-        <v>367.4316193183646</v>
+        <v>362.6128439830418</v>
       </c>
       <c r="P12" t="n">
         <v>481.8775335322814</v>
@@ -5142,28 +5142,28 @@
         <v>481.8775335322814</v>
       </c>
       <c r="R12" t="n">
-        <v>403.9743889377797</v>
+        <v>481.8775335322814</v>
       </c>
       <c r="S12" t="n">
-        <v>403.9743889377797</v>
+        <v>481.8775335322814</v>
       </c>
       <c r="T12" t="n">
-        <v>403.9743889377797</v>
+        <v>360.1912876907962</v>
       </c>
       <c r="U12" t="n">
-        <v>364.3769592169148</v>
+        <v>338.1366113774978</v>
       </c>
       <c r="V12" t="n">
-        <v>242.6907133754296</v>
+        <v>308.7383265409016</v>
       </c>
       <c r="W12" t="n">
-        <v>121.0044675339444</v>
+        <v>261.0767935120379</v>
       </c>
       <c r="X12" t="n">
-        <v>119.3305275773249</v>
+        <v>259.4028535554183</v>
       </c>
       <c r="Y12" t="n">
-        <v>118.4550504387784</v>
+        <v>258.5273764168717</v>
       </c>
     </row>
     <row r="13">
@@ -5173,10 +5173,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>9.637550670645629</v>
+        <v>73.45722710412782</v>
       </c>
       <c r="C13" t="n">
-        <v>9.637550670645629</v>
+        <v>73.45722710412782</v>
       </c>
       <c r="D13" t="n">
         <v>9.637550670645629</v>
@@ -5224,25 +5224,25 @@
         <v>372.3134453971697</v>
       </c>
       <c r="S13" t="n">
-        <v>356.7394923822335</v>
+        <v>356.7394923822334</v>
       </c>
       <c r="T13" t="n">
-        <v>331.9775761229851</v>
+        <v>331.9775761229849</v>
       </c>
       <c r="U13" t="n">
-        <v>247.9019195775953</v>
+        <v>247.901919577595</v>
       </c>
       <c r="V13" t="n">
-        <v>197.2636145114194</v>
+        <v>197.263614511419</v>
       </c>
       <c r="W13" t="n">
-        <v>113.1341722528431</v>
+        <v>113.1341722528426</v>
       </c>
       <c r="X13" t="n">
-        <v>25.74284846493172</v>
+        <v>89.562524898414</v>
       </c>
       <c r="Y13" t="n">
-        <v>9.637550670645629</v>
+        <v>73.45722710412782</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>253.010042353616</v>
+        <v>238.5050418493109</v>
       </c>
       <c r="C14" t="n">
-        <v>253.010042353616</v>
+        <v>116.8187960078257</v>
       </c>
       <c r="D14" t="n">
-        <v>253.010042353616</v>
+        <v>116.8187960078257</v>
       </c>
       <c r="E14" t="n">
-        <v>253.010042353616</v>
+        <v>9.637550670645629</v>
       </c>
       <c r="F14" t="n">
-        <v>253.010042353616</v>
+        <v>9.637550670645629</v>
       </c>
       <c r="G14" t="n">
-        <v>131.3237965121308</v>
+        <v>9.637550670645629</v>
       </c>
       <c r="H14" t="n">
-        <v>9.637550670645627</v>
+        <v>9.637550670645629</v>
       </c>
       <c r="I14" t="n">
-        <v>9.637550670645627</v>
+        <v>9.637550670645629</v>
       </c>
       <c r="J14" t="n">
-        <v>53.42792999998855</v>
+        <v>53.42792999998856</v>
       </c>
       <c r="K14" t="n">
-        <v>172.6926195492282</v>
+        <v>63.51757711628881</v>
       </c>
       <c r="L14" t="n">
-        <v>291.9573090984678</v>
+        <v>63.51757711628881</v>
       </c>
       <c r="M14" t="n">
-        <v>302.046956214768</v>
+        <v>182.7822666655285</v>
       </c>
       <c r="N14" t="n">
-        <v>302.046956214768</v>
+        <v>302.0469562147681</v>
       </c>
       <c r="O14" t="n">
-        <v>302.046956214768</v>
+        <v>302.0469562147681</v>
       </c>
       <c r="P14" t="n">
         <v>421.3116457640077</v>
       </c>
       <c r="Q14" t="n">
-        <v>481.8775335322813</v>
+        <v>481.8775335322814</v>
       </c>
       <c r="R14" t="n">
-        <v>481.8775335322813</v>
+        <v>481.8775335322814</v>
       </c>
       <c r="S14" t="n">
-        <v>481.8775335322813</v>
+        <v>481.8775335322814</v>
       </c>
       <c r="T14" t="n">
-        <v>481.8775335322813</v>
+        <v>481.8775335322814</v>
       </c>
       <c r="U14" t="n">
-        <v>481.8775335322813</v>
+        <v>481.8775335322814</v>
       </c>
       <c r="V14" t="n">
-        <v>481.8775335322813</v>
+        <v>481.8775335322814</v>
       </c>
       <c r="W14" t="n">
-        <v>481.8775335322813</v>
+        <v>360.1912876907962</v>
       </c>
       <c r="X14" t="n">
-        <v>374.6962881951013</v>
+        <v>238.5050418493109</v>
       </c>
       <c r="Y14" t="n">
-        <v>374.6962881951013</v>
+        <v>238.5050418493109</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5331,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>114.2693789126597</v>
+        <v>131.3237965121309</v>
       </c>
       <c r="C15" t="n">
-        <v>114.2693789126597</v>
+        <v>131.3237965121309</v>
       </c>
       <c r="D15" t="n">
-        <v>87.17278278757793</v>
+        <v>131.3237965121309</v>
       </c>
       <c r="E15" t="n">
-        <v>87.17278278757793</v>
+        <v>9.637550670645629</v>
       </c>
       <c r="F15" t="n">
-        <v>87.17278278757793</v>
+        <v>9.637550670645629</v>
       </c>
       <c r="G15" t="n">
-        <v>87.17278278757793</v>
+        <v>9.637550670645629</v>
       </c>
       <c r="H15" t="n">
-        <v>87.17278278757793</v>
+        <v>9.637550670645629</v>
       </c>
       <c r="I15" t="n">
-        <v>9.637550670645627</v>
+        <v>9.637550670645629</v>
       </c>
       <c r="J15" t="n">
-        <v>43.50084578695254</v>
+        <v>43.50084578695255</v>
       </c>
       <c r="K15" t="n">
-        <v>124.0834648845625</v>
+        <v>162.7655353361922</v>
       </c>
       <c r="L15" t="n">
-        <v>124.0834648845625</v>
+        <v>162.7655353361922</v>
       </c>
       <c r="M15" t="n">
-        <v>243.3481544338021</v>
+        <v>162.7655353361922</v>
       </c>
       <c r="N15" t="n">
-        <v>362.6128439830417</v>
+        <v>282.0302248854318</v>
       </c>
       <c r="O15" t="n">
-        <v>481.8775335322813</v>
+        <v>282.0302248854318</v>
       </c>
       <c r="P15" t="n">
-        <v>481.8775335322813</v>
+        <v>364.9358251887517</v>
       </c>
       <c r="Q15" t="n">
-        <v>481.8775335322813</v>
+        <v>481.8775335322814</v>
       </c>
       <c r="R15" t="n">
-        <v>481.8775335322813</v>
+        <v>481.8775335322814</v>
       </c>
       <c r="S15" t="n">
-        <v>481.8775335322813</v>
+        <v>406.6439901268633</v>
       </c>
       <c r="T15" t="n">
-        <v>481.8775335322813</v>
+        <v>406.6439901268633</v>
       </c>
       <c r="U15" t="n">
-        <v>360.1912876907961</v>
+        <v>284.9577442853781</v>
       </c>
       <c r="V15" t="n">
-        <v>238.5050418493109</v>
+        <v>255.559459448782</v>
       </c>
       <c r="W15" t="n">
-        <v>116.8187960078257</v>
+        <v>133.8732136072968</v>
       </c>
       <c r="X15" t="n">
-        <v>115.1448560512062</v>
+        <v>132.1992736506774</v>
       </c>
       <c r="Y15" t="n">
-        <v>114.2693789126597</v>
+        <v>131.3237965121309</v>
       </c>
     </row>
     <row r="16">
@@ -5410,31 +5410,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>9.637550670645627</v>
+        <v>9.637550670645629</v>
       </c>
       <c r="C16" t="n">
-        <v>9.637550670645627</v>
+        <v>9.637550670645629</v>
       </c>
       <c r="D16" t="n">
-        <v>9.637550670645627</v>
+        <v>9.637550670645629</v>
       </c>
       <c r="E16" t="n">
-        <v>9.637550670645627</v>
+        <v>9.637550670645629</v>
       </c>
       <c r="F16" t="n">
-        <v>9.637550670645627</v>
+        <v>9.637550670645629</v>
       </c>
       <c r="G16" t="n">
-        <v>9.637550670645627</v>
+        <v>9.637550670645629</v>
       </c>
       <c r="H16" t="n">
-        <v>9.637550670645627</v>
+        <v>9.637550670645629</v>
       </c>
       <c r="I16" t="n">
-        <v>9.637550670645627</v>
+        <v>9.637550670645629</v>
       </c>
       <c r="J16" t="n">
-        <v>9.637550670645627</v>
+        <v>9.637550670645629</v>
       </c>
       <c r="K16" t="n">
         <v>22.30033025638122</v>
@@ -5458,10 +5458,10 @@
         <v>372.3134453971697</v>
       </c>
       <c r="R16" t="n">
-        <v>308.4937689636869</v>
+        <v>372.3134453971697</v>
       </c>
       <c r="S16" t="n">
-        <v>292.9198159487507</v>
+        <v>356.7394923822335</v>
       </c>
       <c r="T16" t="n">
         <v>268.1578996895023</v>
@@ -5479,7 +5479,7 @@
         <v>25.74284846493172</v>
       </c>
       <c r="Y16" t="n">
-        <v>9.637550670645627</v>
+        <v>9.637550670645629</v>
       </c>
     </row>
     <row r="17">
@@ -5489,22 +5489,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>302.4206529421019</v>
+        <v>302.4206529421026</v>
       </c>
       <c r="C17" t="n">
-        <v>263.5803760164219</v>
+        <v>263.5803760164225</v>
       </c>
       <c r="D17" t="n">
-        <v>235.2253141658371</v>
+        <v>235.2253141658376</v>
       </c>
       <c r="E17" t="n">
-        <v>180.0891381731421</v>
+        <v>180.0891381731425</v>
       </c>
       <c r="F17" t="n">
-        <v>100.5329341751408</v>
+        <v>100.5329341751409</v>
       </c>
       <c r="G17" t="n">
-        <v>13.8737247942601</v>
+        <v>13.87372479426013</v>
       </c>
       <c r="H17" t="n">
         <v>9.637550670645627</v>
@@ -5513,25 +5513,25 @@
         <v>9.637550670645627</v>
       </c>
       <c r="J17" t="n">
-        <v>9.637550670645627</v>
+        <v>53.42792999998855</v>
       </c>
       <c r="K17" t="n">
-        <v>128.9022402198853</v>
+        <v>172.6926195492282</v>
       </c>
       <c r="L17" t="n">
-        <v>243.3481544338021</v>
+        <v>182.7822666655284</v>
       </c>
       <c r="M17" t="n">
-        <v>362.6128439830417</v>
+        <v>182.7822666655284</v>
       </c>
       <c r="N17" t="n">
-        <v>481.8775335322813</v>
+        <v>302.046956214768</v>
       </c>
       <c r="O17" t="n">
-        <v>481.8775335322813</v>
+        <v>302.046956214768</v>
       </c>
       <c r="P17" t="n">
-        <v>481.8775335322813</v>
+        <v>421.3116457640077</v>
       </c>
       <c r="Q17" t="n">
         <v>481.8775335322813</v>
@@ -5549,16 +5549,16 @@
         <v>481.8775335322813</v>
       </c>
       <c r="V17" t="n">
-        <v>481.8775335322807</v>
+        <v>481.8775335322813</v>
       </c>
       <c r="W17" t="n">
-        <v>459.6584471908312</v>
+        <v>459.6584471908316</v>
       </c>
       <c r="X17" t="n">
-        <v>416.902510212397</v>
+        <v>416.9025102123973</v>
       </c>
       <c r="Y17" t="n">
-        <v>358.1612473551077</v>
+        <v>358.1612473551082</v>
       </c>
     </row>
     <row r="18">
@@ -5568,46 +5568,46 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>403.9743889377796</v>
+        <v>317.6765283971959</v>
       </c>
       <c r="C18" t="n">
-        <v>403.9743889377796</v>
+        <v>317.6765283971959</v>
       </c>
       <c r="D18" t="n">
-        <v>282.2881430962944</v>
+        <v>317.6765283971959</v>
       </c>
       <c r="E18" t="n">
-        <v>160.6018972548092</v>
+        <v>317.6765283971959</v>
       </c>
       <c r="F18" t="n">
-        <v>38.91565141332404</v>
+        <v>317.6765283971959</v>
       </c>
       <c r="G18" t="n">
-        <v>9.637550670645627</v>
+        <v>195.9902825557107</v>
       </c>
       <c r="H18" t="n">
-        <v>9.637550670645627</v>
+        <v>87.17278278757793</v>
       </c>
       <c r="I18" t="n">
         <v>9.637550670645627</v>
       </c>
       <c r="J18" t="n">
-        <v>9.637550670645627</v>
+        <v>43.50084578695254</v>
       </c>
       <c r="K18" t="n">
-        <v>9.637550670645627</v>
+        <v>162.7655353361922</v>
       </c>
       <c r="L18" t="n">
-        <v>9.637550670645627</v>
+        <v>243.3481544338021</v>
       </c>
       <c r="M18" t="n">
-        <v>128.9022402198853</v>
+        <v>362.6128439830417</v>
       </c>
       <c r="N18" t="n">
-        <v>248.1669297691249</v>
+        <v>481.8775335322813</v>
       </c>
       <c r="O18" t="n">
-        <v>367.4316193183645</v>
+        <v>481.8775335322813</v>
       </c>
       <c r="P18" t="n">
         <v>481.8775335322813</v>
@@ -5616,28 +5616,28 @@
         <v>481.8775335322813</v>
       </c>
       <c r="R18" t="n">
-        <v>403.9743889377796</v>
+        <v>481.8775335322813</v>
       </c>
       <c r="S18" t="n">
-        <v>403.9743889377796</v>
+        <v>360.1912876907961</v>
       </c>
       <c r="T18" t="n">
-        <v>403.9743889377796</v>
+        <v>360.1912876907961</v>
       </c>
       <c r="U18" t="n">
-        <v>403.9743889377796</v>
+        <v>360.1912876907961</v>
       </c>
       <c r="V18" t="n">
-        <v>403.9743889377796</v>
+        <v>360.1912876907961</v>
       </c>
       <c r="W18" t="n">
-        <v>403.9743889377796</v>
+        <v>360.1912876907961</v>
       </c>
       <c r="X18" t="n">
-        <v>403.9743889377796</v>
+        <v>360.1912876907961</v>
       </c>
       <c r="Y18" t="n">
-        <v>403.9743889377796</v>
+        <v>317.6765283971959</v>
       </c>
     </row>
     <row r="19">
@@ -5647,13 +5647,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>253.010042353616</v>
+        <v>9.637550670645627</v>
       </c>
       <c r="C19" t="n">
-        <v>131.3237965121308</v>
+        <v>9.637550670645627</v>
       </c>
       <c r="D19" t="n">
-        <v>131.3237965121308</v>
+        <v>9.637550670645627</v>
       </c>
       <c r="E19" t="n">
         <v>9.637550670645627</v>
@@ -5692,31 +5692,31 @@
         <v>372.3134453971697</v>
       </c>
       <c r="Q19" t="n">
-        <v>372.3134453971697</v>
+        <v>311.8149041466967</v>
       </c>
       <c r="R19" t="n">
-        <v>372.3134453971697</v>
+        <v>190.1286583052115</v>
       </c>
       <c r="S19" t="n">
-        <v>372.3134453971697</v>
+        <v>190.1286583052115</v>
       </c>
       <c r="T19" t="n">
-        <v>372.3134453971697</v>
+        <v>190.1286583052115</v>
       </c>
       <c r="U19" t="n">
-        <v>372.3134453971697</v>
+        <v>131.3237965121308</v>
       </c>
       <c r="V19" t="n">
-        <v>372.3134453971697</v>
+        <v>9.637550670645627</v>
       </c>
       <c r="W19" t="n">
-        <v>372.3134453971697</v>
+        <v>9.637550670645627</v>
       </c>
       <c r="X19" t="n">
-        <v>372.3134453971697</v>
+        <v>9.637550670645627</v>
       </c>
       <c r="Y19" t="n">
-        <v>372.3134453971697</v>
+        <v>9.637550670645627</v>
       </c>
     </row>
     <row r="20">
@@ -5726,22 +5726,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>302.4206529421023</v>
+        <v>302.4206529421024</v>
       </c>
       <c r="C20" t="n">
-        <v>263.5803760164221</v>
+        <v>263.5803760164224</v>
       </c>
       <c r="D20" t="n">
-        <v>235.2253141658372</v>
+        <v>235.2253141658376</v>
       </c>
       <c r="E20" t="n">
-        <v>180.0891381731421</v>
+        <v>180.0891381731425</v>
       </c>
       <c r="F20" t="n">
-        <v>100.5329341751406</v>
+        <v>100.5329341751411</v>
       </c>
       <c r="G20" t="n">
-        <v>13.87372479426016</v>
+        <v>13.8737247942601</v>
       </c>
       <c r="H20" t="n">
         <v>9.637550670645627</v>
@@ -5753,22 +5753,22 @@
         <v>53.42792999998855</v>
       </c>
       <c r="K20" t="n">
-        <v>53.42792999998855</v>
+        <v>172.6926195492282</v>
       </c>
       <c r="L20" t="n">
-        <v>124.0834648845625</v>
+        <v>182.7822666655284</v>
       </c>
       <c r="M20" t="n">
-        <v>243.3481544338021</v>
+        <v>302.046956214768</v>
       </c>
       <c r="N20" t="n">
-        <v>362.6128439830417</v>
+        <v>302.046956214768</v>
       </c>
       <c r="O20" t="n">
-        <v>481.8775335322813</v>
+        <v>302.046956214768</v>
       </c>
       <c r="P20" t="n">
-        <v>481.8775335322813</v>
+        <v>421.3116457640077</v>
       </c>
       <c r="Q20" t="n">
         <v>481.8775335322813</v>
@@ -5786,10 +5786,10 @@
         <v>481.8775335322813</v>
       </c>
       <c r="V20" t="n">
-        <v>481.8775335322813</v>
+        <v>481.8775335322814</v>
       </c>
       <c r="W20" t="n">
-        <v>459.6584471908316</v>
+        <v>459.6584471908317</v>
       </c>
       <c r="X20" t="n">
         <v>416.9025102123974</v>
@@ -5805,49 +5805,49 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>481.8775335322813</v>
+        <v>240.1412962802636</v>
       </c>
       <c r="C21" t="n">
-        <v>481.8775335322813</v>
+        <v>240.1412962802636</v>
       </c>
       <c r="D21" t="n">
-        <v>481.8775335322813</v>
+        <v>240.1412962802636</v>
       </c>
       <c r="E21" t="n">
-        <v>439.3627742386811</v>
+        <v>240.1412962802636</v>
       </c>
       <c r="F21" t="n">
-        <v>317.6765283971959</v>
+        <v>240.1412962802636</v>
       </c>
       <c r="G21" t="n">
-        <v>195.9902825557107</v>
+        <v>118.4550504387784</v>
       </c>
       <c r="H21" t="n">
-        <v>87.17278278757793</v>
+        <v>9.637550670645627</v>
       </c>
       <c r="I21" t="n">
         <v>9.637550670645627</v>
       </c>
       <c r="J21" t="n">
-        <v>9.637550670645627</v>
+        <v>43.50084578695254</v>
       </c>
       <c r="K21" t="n">
-        <v>9.637550670645627</v>
+        <v>162.7655353361922</v>
       </c>
       <c r="L21" t="n">
-        <v>128.9022402198853</v>
+        <v>162.7655353361922</v>
       </c>
       <c r="M21" t="n">
-        <v>248.1669297691249</v>
+        <v>162.7655353361922</v>
       </c>
       <c r="N21" t="n">
-        <v>367.4316193183645</v>
+        <v>162.7655353361922</v>
       </c>
       <c r="O21" t="n">
-        <v>481.8775335322813</v>
+        <v>245.671135639512</v>
       </c>
       <c r="P21" t="n">
-        <v>481.8775335322813</v>
+        <v>364.9358251887516</v>
       </c>
       <c r="Q21" t="n">
         <v>481.8775335322813</v>
@@ -5856,25 +5856,25 @@
         <v>481.8775335322813</v>
       </c>
       <c r="S21" t="n">
-        <v>481.8775335322813</v>
+        <v>360.1912876907961</v>
       </c>
       <c r="T21" t="n">
-        <v>481.8775335322813</v>
+        <v>240.1412962802636</v>
       </c>
       <c r="U21" t="n">
-        <v>481.8775335322813</v>
+        <v>240.1412962802636</v>
       </c>
       <c r="V21" t="n">
-        <v>481.8775335322813</v>
+        <v>240.1412962802636</v>
       </c>
       <c r="W21" t="n">
-        <v>481.8775335322813</v>
+        <v>240.1412962802636</v>
       </c>
       <c r="X21" t="n">
-        <v>481.8775335322813</v>
+        <v>240.1412962802636</v>
       </c>
       <c r="Y21" t="n">
-        <v>481.8775335322813</v>
+        <v>240.1412962802636</v>
       </c>
     </row>
     <row r="22">
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>9.637550670645627</v>
+        <v>128.9409537141993</v>
       </c>
       <c r="C22" t="n">
-        <v>9.637550670645627</v>
+        <v>128.9409537141993</v>
       </c>
       <c r="D22" t="n">
-        <v>9.637550670645627</v>
+        <v>128.9409537141993</v>
       </c>
       <c r="E22" t="n">
-        <v>9.637550670645627</v>
+        <v>128.9409537141993</v>
       </c>
       <c r="F22" t="n">
-        <v>9.637550670645627</v>
+        <v>128.9409537141993</v>
       </c>
       <c r="G22" t="n">
-        <v>9.637550670645627</v>
+        <v>128.9409537141993</v>
       </c>
       <c r="H22" t="n">
-        <v>9.637550670645627</v>
+        <v>128.9409537141993</v>
       </c>
       <c r="I22" t="n">
         <v>9.637550670645627</v>
@@ -5938,22 +5938,22 @@
         <v>372.3134453971697</v>
       </c>
       <c r="T22" t="n">
-        <v>372.3134453971697</v>
+        <v>250.6271995556845</v>
       </c>
       <c r="U22" t="n">
-        <v>372.3134453971697</v>
+        <v>250.6271995556845</v>
       </c>
       <c r="V22" t="n">
         <v>250.6271995556845</v>
       </c>
       <c r="W22" t="n">
-        <v>128.9409537141993</v>
+        <v>250.6271995556845</v>
       </c>
       <c r="X22" t="n">
-        <v>9.637550670645627</v>
+        <v>250.6271995556845</v>
       </c>
       <c r="Y22" t="n">
-        <v>9.637550670645627</v>
+        <v>250.6271995556845</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>302.4206529421026</v>
+        <v>302.4206529421028</v>
       </c>
       <c r="C23" t="n">
-        <v>263.5803760164225</v>
+        <v>263.580376016423</v>
       </c>
       <c r="D23" t="n">
-        <v>235.2253141658376</v>
+        <v>235.2253141658382</v>
       </c>
       <c r="E23" t="n">
-        <v>180.0891381731425</v>
+        <v>180.0891381731428</v>
       </c>
       <c r="F23" t="n">
-        <v>100.5329341751408</v>
+        <v>100.5329341751413</v>
       </c>
       <c r="G23" t="n">
-        <v>13.87372479426016</v>
+        <v>13.8737247942601</v>
       </c>
       <c r="H23" t="n">
-        <v>9.637550670645636</v>
+        <v>9.637550670645629</v>
       </c>
       <c r="I23" t="n">
-        <v>9.637550670645636</v>
+        <v>9.637550670645629</v>
       </c>
       <c r="J23" t="n">
-        <v>9.637550670645636</v>
+        <v>9.637550670645629</v>
       </c>
       <c r="K23" t="n">
-        <v>128.9022402198854</v>
+        <v>128.9022402198853</v>
       </c>
       <c r="L23" t="n">
-        <v>128.9022402198854</v>
+        <v>248.1669297691249</v>
       </c>
       <c r="M23" t="n">
-        <v>248.1669297691251</v>
+        <v>302.0469562147681</v>
       </c>
       <c r="N23" t="n">
-        <v>362.6128439830421</v>
+        <v>302.0469562147681</v>
       </c>
       <c r="O23" t="n">
-        <v>362.6128439830421</v>
+        <v>302.0469562147681</v>
       </c>
       <c r="P23" t="n">
-        <v>481.8775335322818</v>
+        <v>421.3116457640077</v>
       </c>
       <c r="Q23" t="n">
-        <v>481.8775335322818</v>
+        <v>481.8775335322814</v>
       </c>
       <c r="R23" t="n">
-        <v>481.8775335322818</v>
+        <v>481.8775335322814</v>
       </c>
       <c r="S23" t="n">
-        <v>481.8775335322818</v>
+        <v>481.8775335322814</v>
       </c>
       <c r="T23" t="n">
-        <v>481.8775335322818</v>
+        <v>481.8775335322814</v>
       </c>
       <c r="U23" t="n">
-        <v>481.8775335322818</v>
+        <v>481.8775335322814</v>
       </c>
       <c r="V23" t="n">
-        <v>481.8775335322818</v>
+        <v>481.8775335322816</v>
       </c>
       <c r="W23" t="n">
-        <v>459.6584471908321</v>
+        <v>459.658447190832</v>
       </c>
       <c r="X23" t="n">
         <v>416.9025102123977</v>
       </c>
       <c r="Y23" t="n">
-        <v>358.1612473551083</v>
+        <v>358.1612473551085</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6042,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>360.1912876907965</v>
+        <v>160.6018972548093</v>
       </c>
       <c r="C24" t="n">
-        <v>238.5050418493111</v>
+        <v>160.6018972548093</v>
       </c>
       <c r="D24" t="n">
-        <v>116.8187960078258</v>
+        <v>160.6018972548093</v>
       </c>
       <c r="E24" t="n">
-        <v>116.8187960078258</v>
+        <v>160.6018972548093</v>
       </c>
       <c r="F24" t="n">
-        <v>9.637550670645636</v>
+        <v>160.6018972548093</v>
       </c>
       <c r="G24" t="n">
-        <v>9.637550670645636</v>
+        <v>160.6018972548093</v>
       </c>
       <c r="H24" t="n">
-        <v>9.637550670645636</v>
+        <v>87.17278278757793</v>
       </c>
       <c r="I24" t="n">
-        <v>9.637550670645636</v>
+        <v>9.637550670645629</v>
       </c>
       <c r="J24" t="n">
-        <v>9.637550670645636</v>
+        <v>9.637550670645629</v>
       </c>
       <c r="K24" t="n">
-        <v>9.637550670645636</v>
+        <v>128.9022402198853</v>
       </c>
       <c r="L24" t="n">
-        <v>128.9022402198854</v>
+        <v>128.9022402198853</v>
       </c>
       <c r="M24" t="n">
-        <v>248.1669297691251</v>
+        <v>128.9022402198853</v>
       </c>
       <c r="N24" t="n">
-        <v>362.6128439830421</v>
+        <v>248.1669297691249</v>
       </c>
       <c r="O24" t="n">
-        <v>481.8775335322818</v>
+        <v>362.6128439830418</v>
       </c>
       <c r="P24" t="n">
-        <v>481.8775335322818</v>
+        <v>481.8775335322814</v>
       </c>
       <c r="Q24" t="n">
-        <v>481.8775335322818</v>
+        <v>481.8775335322814</v>
       </c>
       <c r="R24" t="n">
-        <v>481.8775335322818</v>
+        <v>403.9743889377797</v>
       </c>
       <c r="S24" t="n">
-        <v>481.8775335322818</v>
+        <v>403.9743889377797</v>
       </c>
       <c r="T24" t="n">
-        <v>481.8775335322818</v>
+        <v>282.2881430962945</v>
       </c>
       <c r="U24" t="n">
-        <v>481.8775335322818</v>
+        <v>282.2881430962945</v>
       </c>
       <c r="V24" t="n">
-        <v>481.8775335322818</v>
+        <v>282.2881430962945</v>
       </c>
       <c r="W24" t="n">
-        <v>481.8775335322818</v>
+        <v>282.2881430962945</v>
       </c>
       <c r="X24" t="n">
-        <v>481.8775335322818</v>
+        <v>282.2881430962945</v>
       </c>
       <c r="Y24" t="n">
-        <v>481.8775335322818</v>
+        <v>160.6018972548093</v>
       </c>
     </row>
     <row r="25">
@@ -6121,34 +6121,34 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>204.1164084909113</v>
+        <v>204.1164084909111</v>
       </c>
       <c r="C25" t="n">
-        <v>204.1164084909113</v>
+        <v>204.1164084909111</v>
       </c>
       <c r="D25" t="n">
-        <v>204.1164084909113</v>
+        <v>204.1164084909111</v>
       </c>
       <c r="E25" t="n">
-        <v>204.1164084909113</v>
+        <v>204.1164084909111</v>
       </c>
       <c r="F25" t="n">
-        <v>204.1164084909113</v>
+        <v>82.43016264942592</v>
       </c>
       <c r="G25" t="n">
-        <v>204.1164084909113</v>
+        <v>82.43016264942592</v>
       </c>
       <c r="H25" t="n">
-        <v>204.1164084909113</v>
+        <v>82.43016264942592</v>
       </c>
       <c r="I25" t="n">
-        <v>82.43016264942594</v>
+        <v>82.43016264942592</v>
       </c>
       <c r="J25" t="n">
-        <v>9.637550670645636</v>
+        <v>9.637550670645629</v>
       </c>
       <c r="K25" t="n">
-        <v>22.30033025638123</v>
+        <v>22.30033025638122</v>
       </c>
       <c r="L25" t="n">
         <v>94.3079436201358</v>
@@ -6178,19 +6178,19 @@
         <v>311.8149041466967</v>
       </c>
       <c r="U25" t="n">
-        <v>204.1164084909113</v>
+        <v>311.8149041466967</v>
       </c>
       <c r="V25" t="n">
-        <v>204.1164084909113</v>
+        <v>311.8149041466967</v>
       </c>
       <c r="W25" t="n">
-        <v>204.1164084909113</v>
+        <v>204.1164084909111</v>
       </c>
       <c r="X25" t="n">
-        <v>204.1164084909113</v>
+        <v>204.1164084909111</v>
       </c>
       <c r="Y25" t="n">
-        <v>204.1164084909113</v>
+        <v>204.1164084909111</v>
       </c>
     </row>
     <row r="26">
@@ -6206,19 +6206,19 @@
         <v>1169.37214947137</v>
       </c>
       <c r="D26" t="n">
-        <v>972.8477594642314</v>
+        <v>972.8477594642312</v>
       </c>
       <c r="E26" t="n">
-        <v>749.5422553149824</v>
+        <v>749.5422553149823</v>
       </c>
       <c r="F26" t="n">
-        <v>501.8167231604268</v>
+        <v>501.8167231604269</v>
       </c>
       <c r="G26" t="n">
-        <v>246.9881856229926</v>
+        <v>246.9881856229922</v>
       </c>
       <c r="H26" t="n">
-        <v>74.58268334282428</v>
+        <v>74.58268334282423</v>
       </c>
       <c r="I26" t="n">
         <v>51.56523011436651</v>
@@ -6227,25 +6227,25 @@
         <v>95.35560944370943</v>
       </c>
       <c r="K26" t="n">
-        <v>283.262629305191</v>
+        <v>443.6877600862467</v>
       </c>
       <c r="L26" t="n">
-        <v>726.777858303856</v>
+        <v>728.7721122228618</v>
       </c>
       <c r="M26" t="n">
-        <v>1059.201423787807</v>
+        <v>1221.620808487869</v>
       </c>
       <c r="N26" t="n">
-        <v>1541.911905888212</v>
+        <v>1704.331290588274</v>
       </c>
       <c r="O26" t="n">
-        <v>1960.533603620733</v>
+        <v>2013.419353251566</v>
       </c>
       <c r="P26" t="n">
-        <v>2304.384737538163</v>
+        <v>2357.270487168996</v>
       </c>
       <c r="Q26" t="n">
-        <v>2525.375756087492</v>
+        <v>2578.261505718325</v>
       </c>
       <c r="R26" t="n">
         <v>2578.261505718325</v>
@@ -6257,10 +6257,10 @@
         <v>2486.978066635113</v>
       </c>
       <c r="U26" t="n">
-        <v>2396.685275926553</v>
+        <v>2396.685275926552</v>
       </c>
       <c r="V26" t="n">
-        <v>2228.515947769999</v>
+        <v>2228.515947769998</v>
       </c>
       <c r="W26" t="n">
         <v>2038.127533271995</v>
@@ -6269,7 +6269,7 @@
         <v>1827.202268137007</v>
       </c>
       <c r="Y26" t="n">
-        <v>1600.291677123164</v>
+        <v>1600.291677123163</v>
       </c>
     </row>
     <row r="27">
@@ -6279,25 +6279,25 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>805.0797714473747</v>
+        <v>727.1766268528731</v>
       </c>
       <c r="C27" t="n">
-        <v>632.3266563691918</v>
+        <v>680.2271203929427</v>
       </c>
       <c r="D27" t="n">
-        <v>484.7383497281357</v>
+        <v>532.6388137518866</v>
       </c>
       <c r="E27" t="n">
-        <v>327.1288207309904</v>
+        <v>375.0292847547412</v>
       </c>
       <c r="F27" t="n">
-        <v>182.1730307476072</v>
+        <v>375.0292847547412</v>
       </c>
       <c r="G27" t="n">
-        <v>51.56523011436651</v>
+        <v>237.9179619994316</v>
       </c>
       <c r="H27" t="n">
-        <v>51.56523011436651</v>
+        <v>129.1004622312988</v>
       </c>
       <c r="I27" t="n">
         <v>51.56523011436651</v>
@@ -6327,28 +6327,28 @@
         <v>2135.278974238888</v>
       </c>
       <c r="R27" t="n">
-        <v>2135.278974238888</v>
+        <v>2057.375829644386</v>
       </c>
       <c r="S27" t="n">
-        <v>2133.602798682692</v>
+        <v>2055.699654088191</v>
       </c>
       <c r="T27" t="n">
-        <v>2098.051027031875</v>
+        <v>1856.465471682291</v>
       </c>
       <c r="U27" t="n">
-        <v>1871.143392080773</v>
+        <v>1629.55783673119</v>
       </c>
       <c r="V27" t="n">
-        <v>1636.892148606374</v>
+        <v>1558.989004011873</v>
       </c>
       <c r="W27" t="n">
-        <v>1384.377656939707</v>
+        <v>1306.474512345206</v>
       </c>
       <c r="X27" t="n">
-        <v>1177.850758345285</v>
+        <v>1099.947613750783</v>
       </c>
       <c r="Y27" t="n">
-        <v>972.1223225689351</v>
+        <v>894.2191779744336</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>56.90964050191332</v>
+        <v>56.90964050191326</v>
       </c>
       <c r="C28" t="n">
         <v>51.56523011436651</v>
       </c>
       <c r="D28" t="n">
-        <v>64.47485004604803</v>
+        <v>51.56523011436651</v>
       </c>
       <c r="E28" t="n">
-        <v>79.39510289563654</v>
+        <v>66.48548296395506</v>
       </c>
       <c r="F28" t="n">
-        <v>95.12280248098577</v>
+        <v>66.48548296395506</v>
       </c>
       <c r="G28" t="n">
-        <v>89.4594246816428</v>
+        <v>60.82210516461215</v>
       </c>
       <c r="H28" t="n">
-        <v>91.95517138919556</v>
+        <v>63.31785187216497</v>
       </c>
       <c r="I28" t="n">
-        <v>107.2229937940877</v>
+        <v>78.58567427705717</v>
       </c>
       <c r="J28" t="n">
-        <v>196.3040855747408</v>
+        <v>78.58567427705717</v>
       </c>
       <c r="K28" t="n">
-        <v>208.9668651604764</v>
+        <v>251.6735846438485</v>
       </c>
       <c r="L28" t="n">
-        <v>280.974478524231</v>
+        <v>323.6811980076031</v>
       </c>
       <c r="M28" t="n">
-        <v>367.4893102262873</v>
+        <v>410.1960297096594</v>
       </c>
       <c r="N28" t="n">
-        <v>457.0882744954661</v>
+        <v>499.7949939788382</v>
       </c>
       <c r="O28" t="n">
-        <v>524.5108234552283</v>
+        <v>628.3952559999868</v>
       </c>
       <c r="P28" t="n">
-        <v>561.733902344557</v>
+        <v>662.8644128460235</v>
       </c>
       <c r="Q28" t="n">
-        <v>662.8644128460242</v>
+        <v>662.8644128460235</v>
       </c>
       <c r="R28" t="n">
-        <v>662.1800018963797</v>
+        <v>662.1800018963792</v>
       </c>
       <c r="S28" t="n">
-        <v>605.4355009987223</v>
+        <v>605.4355009987219</v>
       </c>
       <c r="T28" t="n">
-        <v>539.5030368567527</v>
+        <v>539.5030368567523</v>
       </c>
       <c r="U28" t="n">
-        <v>414.2568324286416</v>
+        <v>414.2568324286412</v>
       </c>
       <c r="V28" t="n">
-        <v>322.4479794797445</v>
+        <v>322.4479794797442</v>
       </c>
       <c r="W28" t="n">
-        <v>197.147989338447</v>
+        <v>197.1479893384467</v>
       </c>
       <c r="X28" t="n">
-        <v>132.4057941012972</v>
+        <v>132.405794101297</v>
       </c>
       <c r="Y28" t="n">
-        <v>75.12994842428989</v>
+        <v>75.12994842428978</v>
       </c>
     </row>
     <row r="29">
@@ -6443,40 +6443,40 @@
         <v>1169.37214947137</v>
       </c>
       <c r="D29" t="n">
-        <v>972.8477594642313</v>
+        <v>972.8477594642318</v>
       </c>
       <c r="E29" t="n">
-        <v>749.5422553149826</v>
+        <v>749.5422553149829</v>
       </c>
       <c r="F29" t="n">
-        <v>501.8167231604272</v>
+        <v>501.8167231604276</v>
       </c>
       <c r="G29" t="n">
-        <v>246.9881856229924</v>
+        <v>246.9881856229929</v>
       </c>
       <c r="H29" t="n">
-        <v>74.58268334282431</v>
+        <v>74.58268334282423</v>
       </c>
       <c r="I29" t="n">
         <v>51.56523011436651</v>
       </c>
       <c r="J29" t="n">
-        <v>255.7807402247651</v>
+        <v>255.7807402247652</v>
       </c>
       <c r="K29" t="n">
-        <v>602.1186369482966</v>
+        <v>443.6877600862467</v>
       </c>
       <c r="L29" t="n">
-        <v>1047.628119865967</v>
+        <v>889.1972430039175</v>
       </c>
       <c r="M29" t="n">
-        <v>1380.051685349919</v>
+        <v>1221.620808487869</v>
       </c>
       <c r="N29" t="n">
-        <v>1702.337036669268</v>
+        <v>1543.906159807218</v>
       </c>
       <c r="O29" t="n">
-        <v>2120.958734401789</v>
+        <v>1962.527857539739</v>
       </c>
       <c r="P29" t="n">
         <v>2304.384737538163</v>
@@ -6488,7 +6488,7 @@
         <v>2578.261505718325</v>
       </c>
       <c r="S29" t="n">
-        <v>2546.174182173098</v>
+        <v>2546.174182173099</v>
       </c>
       <c r="T29" t="n">
         <v>2486.978066635113</v>
@@ -6516,16 +6516,16 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>997.9360254545086</v>
+        <v>852.9802354711255</v>
       </c>
       <c r="C30" t="n">
-        <v>825.1829103763257</v>
+        <v>680.2271203929427</v>
       </c>
       <c r="D30" t="n">
-        <v>677.5946037352696</v>
+        <v>532.6388137518866</v>
       </c>
       <c r="E30" t="n">
-        <v>519.9850747381244</v>
+        <v>375.0292847547412</v>
       </c>
       <c r="F30" t="n">
         <v>375.0292847547412</v>
@@ -6564,28 +6564,28 @@
         <v>2135.278974238888</v>
       </c>
       <c r="R30" t="n">
-        <v>2057.375829644386</v>
+        <v>2135.278974238888</v>
       </c>
       <c r="S30" t="n">
-        <v>1892.017243333109</v>
+        <v>2133.602798682692</v>
       </c>
       <c r="T30" t="n">
-        <v>1692.783060927209</v>
+        <v>1982.269080300543</v>
       </c>
       <c r="U30" t="n">
-        <v>1465.875425976108</v>
+        <v>1755.361445349442</v>
       </c>
       <c r="V30" t="n">
-        <v>1338.701170348262</v>
+        <v>1521.110201875043</v>
       </c>
       <c r="W30" t="n">
-        <v>1249.869089436677</v>
+        <v>1432.278120963458</v>
       </c>
       <c r="X30" t="n">
-        <v>1207.024601597337</v>
+        <v>1225.751222369036</v>
       </c>
       <c r="Y30" t="n">
-        <v>1164.978576576069</v>
+        <v>1020.022786592686</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>62.57301830125634</v>
+        <v>56.90964050191326</v>
       </c>
       <c r="C31" t="n">
-        <v>57.2286079137095</v>
+        <v>51.56523011436651</v>
       </c>
       <c r="D31" t="n">
-        <v>57.2286079137095</v>
+        <v>64.47485004604809</v>
       </c>
       <c r="E31" t="n">
-        <v>57.2286079137095</v>
+        <v>79.39510289563665</v>
       </c>
       <c r="F31" t="n">
-        <v>57.2286079137095</v>
+        <v>95.12280248098594</v>
       </c>
       <c r="G31" t="n">
-        <v>51.56523011436651</v>
+        <v>89.45942468164303</v>
       </c>
       <c r="H31" t="n">
-        <v>54.06097682191923</v>
+        <v>91.95517138919584</v>
       </c>
       <c r="I31" t="n">
-        <v>69.32879922681136</v>
+        <v>91.95517138919584</v>
       </c>
       <c r="J31" t="n">
-        <v>158.4098910074645</v>
+        <v>91.95517138919584</v>
       </c>
       <c r="K31" t="n">
-        <v>171.0726705932001</v>
+        <v>104.6179509749314</v>
       </c>
       <c r="L31" t="n">
-        <v>243.0802839569546</v>
+        <v>176.625564338686</v>
       </c>
       <c r="M31" t="n">
-        <v>329.595115659011</v>
+        <v>310.9486119899901</v>
       </c>
       <c r="N31" t="n">
-        <v>566.6360848395684</v>
+        <v>400.5475762591689</v>
       </c>
       <c r="O31" t="n">
-        <v>634.0586337993307</v>
+        <v>628.3952559999868</v>
       </c>
       <c r="P31" t="n">
-        <v>668.5277906453673</v>
+        <v>662.8644128460235</v>
       </c>
       <c r="Q31" t="n">
-        <v>668.5277906453673</v>
+        <v>662.8644128460235</v>
       </c>
       <c r="R31" t="n">
-        <v>667.8433796957229</v>
+        <v>662.1800018963792</v>
       </c>
       <c r="S31" t="n">
-        <v>611.0988787980655</v>
+        <v>605.4355009987219</v>
       </c>
       <c r="T31" t="n">
-        <v>545.1664146560958</v>
+        <v>539.5030368567523</v>
       </c>
       <c r="U31" t="n">
-        <v>419.9202102279847</v>
+        <v>414.2568324286412</v>
       </c>
       <c r="V31" t="n">
-        <v>328.1113572790876</v>
+        <v>322.4479794797442</v>
       </c>
       <c r="W31" t="n">
-        <v>202.8113671377901</v>
+        <v>197.1479893384467</v>
       </c>
       <c r="X31" t="n">
-        <v>138.0691719006403</v>
+        <v>132.405794101297</v>
       </c>
       <c r="Y31" t="n">
-        <v>80.79332622363295</v>
+        <v>75.12994842428978</v>
       </c>
     </row>
     <row r="32">
@@ -6674,49 +6674,49 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1376.381754553605</v>
+        <v>1376.381754553604</v>
       </c>
       <c r="C32" t="n">
-        <v>1169.372149471371</v>
+        <v>1169.37214947137</v>
       </c>
       <c r="D32" t="n">
-        <v>972.8477594642319</v>
+        <v>972.8477594642318</v>
       </c>
       <c r="E32" t="n">
-        <v>749.542255314983</v>
+        <v>749.5422553149826</v>
       </c>
       <c r="F32" t="n">
-        <v>501.8167231604276</v>
+        <v>501.816723160427</v>
       </c>
       <c r="G32" t="n">
-        <v>246.9881856229929</v>
+        <v>246.9881856229923</v>
       </c>
       <c r="H32" t="n">
-        <v>74.58268334282423</v>
+        <v>74.58268334282425</v>
       </c>
       <c r="I32" t="n">
         <v>51.56523011436651</v>
       </c>
       <c r="J32" t="n">
-        <v>255.7807402247652</v>
+        <v>255.7807402247651</v>
       </c>
       <c r="K32" t="n">
         <v>443.6877600862467</v>
       </c>
       <c r="L32" t="n">
-        <v>728.7721122228618</v>
+        <v>889.1972430039175</v>
       </c>
       <c r="M32" t="n">
         <v>1221.620808487869</v>
       </c>
       <c r="N32" t="n">
-        <v>1702.337036669268</v>
+        <v>1704.331290588274</v>
       </c>
       <c r="O32" t="n">
-        <v>2120.958734401789</v>
+        <v>1962.527857539739</v>
       </c>
       <c r="P32" t="n">
-        <v>2464.809868319219</v>
+        <v>2306.378991457169</v>
       </c>
       <c r="Q32" t="n">
         <v>2525.375756087492</v>
@@ -6725,10 +6725,10 @@
         <v>2578.261505718325</v>
       </c>
       <c r="S32" t="n">
-        <v>2546.174182173099</v>
+        <v>2546.174182173098</v>
       </c>
       <c r="T32" t="n">
-        <v>2486.978066635113</v>
+        <v>2486.978066635112</v>
       </c>
       <c r="U32" t="n">
         <v>2396.685275926553</v>
@@ -6753,22 +6753,22 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>752.0072029310663</v>
+        <v>689.2978247160436</v>
       </c>
       <c r="C33" t="n">
-        <v>579.2540878528835</v>
+        <v>680.2271203929427</v>
       </c>
       <c r="D33" t="n">
-        <v>431.6657812118273</v>
+        <v>532.6388137518866</v>
       </c>
       <c r="E33" t="n">
-        <v>274.056252214682</v>
+        <v>375.0292847547412</v>
       </c>
       <c r="F33" t="n">
-        <v>129.1004622312988</v>
+        <v>375.0292847547412</v>
       </c>
       <c r="G33" t="n">
-        <v>129.1004622312988</v>
+        <v>237.9179619994316</v>
       </c>
       <c r="H33" t="n">
         <v>129.1004622312988</v>
@@ -6804,25 +6804,25 @@
         <v>2057.375829644386</v>
       </c>
       <c r="S33" t="n">
-        <v>1916.847819411302</v>
+        <v>1892.017243333109</v>
       </c>
       <c r="T33" t="n">
-        <v>1717.613637005403</v>
+        <v>1692.783060927209</v>
       </c>
       <c r="U33" t="n">
-        <v>1654.388412809383</v>
+        <v>1465.875425976108</v>
       </c>
       <c r="V33" t="n">
-        <v>1583.819580090066</v>
+        <v>1231.624182501709</v>
       </c>
       <c r="W33" t="n">
-        <v>1331.305088423399</v>
+        <v>979.1096908350422</v>
       </c>
       <c r="X33" t="n">
-        <v>1124.778189828976</v>
+        <v>898.3864008588718</v>
       </c>
       <c r="Y33" t="n">
-        <v>919.0497540526268</v>
+        <v>692.6579650825222</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>56.90964050191326</v>
+        <v>62.57301830125622</v>
       </c>
       <c r="C34" t="n">
+        <v>57.22860791370944</v>
+      </c>
+      <c r="D34" t="n">
+        <v>57.22860791370944</v>
+      </c>
+      <c r="E34" t="n">
+        <v>57.22860791370944</v>
+      </c>
+      <c r="F34" t="n">
+        <v>57.22860791370944</v>
+      </c>
+      <c r="G34" t="n">
         <v>51.56523011436651</v>
       </c>
-      <c r="D34" t="n">
-        <v>64.47485004604809</v>
-      </c>
-      <c r="E34" t="n">
-        <v>79.39510289563665</v>
-      </c>
-      <c r="F34" t="n">
-        <v>95.12280248098594</v>
-      </c>
-      <c r="G34" t="n">
-        <v>89.45942468164303</v>
-      </c>
       <c r="H34" t="n">
-        <v>91.95517138919584</v>
+        <v>51.56523011436651</v>
       </c>
       <c r="I34" t="n">
-        <v>107.222993794088</v>
+        <v>51.56523011436651</v>
       </c>
       <c r="J34" t="n">
-        <v>196.3040855747412</v>
+        <v>51.56523011436651</v>
       </c>
       <c r="K34" t="n">
-        <v>211.7207872037678</v>
+        <v>224.6531404811578</v>
       </c>
       <c r="L34" t="n">
-        <v>283.7284005675223</v>
+        <v>296.6607538449124</v>
       </c>
       <c r="M34" t="n">
-        <v>370.2432322695786</v>
+        <v>383.1755855469687</v>
       </c>
       <c r="N34" t="n">
-        <v>459.8421965387574</v>
+        <v>566.6360848395678</v>
       </c>
       <c r="O34" t="n">
-        <v>527.2647454985197</v>
+        <v>634.0586337993301</v>
       </c>
       <c r="P34" t="n">
-        <v>561.7339023445563</v>
+        <v>668.5277906453667</v>
       </c>
       <c r="Q34" t="n">
-        <v>662.8644128460235</v>
+        <v>668.5277906453667</v>
       </c>
       <c r="R34" t="n">
-        <v>662.1800018963792</v>
+        <v>667.8433796957223</v>
       </c>
       <c r="S34" t="n">
-        <v>605.4355009987219</v>
+        <v>611.0988787980649</v>
       </c>
       <c r="T34" t="n">
-        <v>539.5030368567523</v>
+        <v>545.1664146560953</v>
       </c>
       <c r="U34" t="n">
-        <v>414.2568324286412</v>
+        <v>419.9202102279843</v>
       </c>
       <c r="V34" t="n">
-        <v>322.4479794797442</v>
+        <v>328.1113572790872</v>
       </c>
       <c r="W34" t="n">
-        <v>197.1479893384467</v>
+        <v>202.8113671377897</v>
       </c>
       <c r="X34" t="n">
-        <v>132.405794101297</v>
+        <v>138.06917190064</v>
       </c>
       <c r="Y34" t="n">
-        <v>75.12994842428978</v>
+        <v>80.79332622363276</v>
       </c>
     </row>
     <row r="35">
@@ -6914,19 +6914,19 @@
         <v>1151.202809383139</v>
       </c>
       <c r="C35" t="n">
-        <v>976.2805278461318</v>
+        <v>976.2805278461321</v>
       </c>
       <c r="D35" t="n">
-        <v>811.8434613842201</v>
+        <v>811.8434613842203</v>
       </c>
       <c r="E35" t="n">
-        <v>620.6252807801982</v>
+        <v>620.6252807801983</v>
       </c>
       <c r="F35" t="n">
         <v>404.9870721708699</v>
       </c>
       <c r="G35" t="n">
-        <v>182.2458581786622</v>
+        <v>182.2458581786623</v>
       </c>
       <c r="H35" t="n">
         <v>41.92767944372088</v>
@@ -6938,22 +6938,22 @@
         <v>85.7180587730638</v>
       </c>
       <c r="K35" t="n">
-        <v>462.5283288022827</v>
+        <v>273.6250786345454</v>
       </c>
       <c r="L35" t="n">
-        <v>939.4865975266305</v>
+        <v>558.7094307711604</v>
       </c>
       <c r="M35" t="n">
-        <v>1271.910163010582</v>
+        <v>891.1329962551117</v>
       </c>
       <c r="N35" t="n">
-        <v>1594.195514329931</v>
+        <v>1213.418347574461</v>
       </c>
       <c r="O35" t="n">
-        <v>1852.392081281396</v>
+        <v>1471.614914525926</v>
       </c>
       <c r="P35" t="n">
-        <v>2035.81808441777</v>
+        <v>1846.914834250033</v>
       </c>
       <c r="Q35" t="n">
         <v>2096.383972186044</v>
@@ -6968,10 +6968,10 @@
         <v>2069.275180193285</v>
       </c>
       <c r="U35" t="n">
-        <v>2011.069713029952</v>
+        <v>2011.069713029953</v>
       </c>
       <c r="V35" t="n">
-        <v>1874.987708418625</v>
+        <v>1874.987708418626</v>
       </c>
       <c r="W35" t="n">
         <v>1716.686617465849</v>
@@ -6980,7 +6980,7 @@
         <v>1537.848675876088</v>
       </c>
       <c r="Y35" t="n">
-        <v>1343.025408407471</v>
+        <v>1343.025408407472</v>
       </c>
     </row>
     <row r="36">
@@ -6990,25 +6990,25 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>664.8344201434883</v>
+        <v>706.7278599375475</v>
       </c>
       <c r="C36" t="n">
-        <v>492.0813050653055</v>
+        <v>706.7278599375475</v>
       </c>
       <c r="D36" t="n">
-        <v>344.4929984242493</v>
+        <v>559.1395532964913</v>
       </c>
       <c r="E36" t="n">
-        <v>186.883469427104</v>
+        <v>401.530024299346</v>
       </c>
       <c r="F36" t="n">
-        <v>41.92767944372088</v>
+        <v>256.5742343159628</v>
       </c>
       <c r="G36" t="n">
-        <v>41.92767944372088</v>
+        <v>119.4629115606532</v>
       </c>
       <c r="H36" t="n">
-        <v>41.92767944372088</v>
+        <v>119.4629115606532</v>
       </c>
       <c r="I36" t="n">
         <v>41.92767944372088</v>
@@ -7017,49 +7017,49 @@
         <v>75.79097456002779</v>
       </c>
       <c r="K36" t="n">
-        <v>260.2743528123683</v>
+        <v>231.0169014301702</v>
       </c>
       <c r="L36" t="n">
-        <v>569.1846284987753</v>
+        <v>539.9271771165772</v>
       </c>
       <c r="M36" t="n">
-        <v>982.4685439431305</v>
+        <v>953.2110925609325</v>
       </c>
       <c r="N36" t="n">
-        <v>1422.089586868058</v>
+        <v>1392.83213548586</v>
       </c>
       <c r="O36" t="n">
-        <v>1756.628935509045</v>
+        <v>1727.371484126847</v>
       </c>
       <c r="P36" t="n">
-        <v>2008.699715224712</v>
+        <v>1979.442263842514</v>
       </c>
       <c r="Q36" t="n">
         <v>2096.383972186044</v>
       </c>
       <c r="R36" t="n">
-        <v>2018.480827591542</v>
+        <v>2096.383972186044</v>
       </c>
       <c r="S36" t="n">
-        <v>1853.122241280265</v>
+        <v>1931.025385874767</v>
       </c>
       <c r="T36" t="n">
-        <v>1762.035941427679</v>
+        <v>1731.791203468867</v>
       </c>
       <c r="U36" t="n">
-        <v>1535.128306476578</v>
+        <v>1504.883568517766</v>
       </c>
       <c r="V36" t="n">
-        <v>1496.646797302487</v>
+        <v>1342.770502796238</v>
       </c>
       <c r="W36" t="n">
-        <v>1244.132305635821</v>
+        <v>1286.02574542988</v>
       </c>
       <c r="X36" t="n">
-        <v>1037.605407041398</v>
+        <v>1079.498846835457</v>
       </c>
       <c r="Y36" t="n">
-        <v>831.8769712650487</v>
+        <v>873.7704110591079</v>
       </c>
     </row>
     <row r="37">
@@ -7129,13 +7129,13 @@
         <v>252.942375338188</v>
       </c>
       <c r="V37" t="n">
-        <v>193.2208459345179</v>
+        <v>192.9837398634944</v>
       </c>
       <c r="W37" t="n">
-        <v>100.0081793384474</v>
+        <v>99.7710732674239</v>
       </c>
       <c r="X37" t="n">
-        <v>67.35330764652471</v>
+        <v>67.11620157550117</v>
       </c>
       <c r="Y37" t="n">
         <v>41.92767944372088</v>
@@ -7151,49 +7151,49 @@
         <v>1151.202809383139</v>
       </c>
       <c r="C38" t="n">
-        <v>976.2805278461316</v>
+        <v>976.2805278461317</v>
       </c>
       <c r="D38" t="n">
-        <v>811.8434613842198</v>
+        <v>811.8434613842201</v>
       </c>
       <c r="E38" t="n">
-        <v>620.6252807801978</v>
+        <v>620.6252807801982</v>
       </c>
       <c r="F38" t="n">
-        <v>404.9870721708694</v>
+        <v>404.9870721708699</v>
       </c>
       <c r="G38" t="n">
-        <v>182.2458581786623</v>
+        <v>182.2458581786622</v>
       </c>
       <c r="H38" t="n">
         <v>41.92767944372088</v>
       </c>
       <c r="I38" t="n">
-        <v>41.92767944372088</v>
+        <v>50.81705934118646</v>
       </c>
       <c r="J38" t="n">
-        <v>85.7180587730638</v>
+        <v>94.60743867052938</v>
       </c>
       <c r="K38" t="n">
-        <v>273.6250786345454</v>
+        <v>282.514458532011</v>
       </c>
       <c r="L38" t="n">
-        <v>663.2781455013878</v>
+        <v>567.598810668626</v>
       </c>
       <c r="M38" t="n">
-        <v>995.7017109853391</v>
+        <v>900.0223761525773</v>
       </c>
       <c r="N38" t="n">
-        <v>1317.987062304689</v>
+        <v>1414.181644059659</v>
       </c>
       <c r="O38" t="n">
-        <v>1576.183629256154</v>
+        <v>1852.392081281396</v>
       </c>
       <c r="P38" t="n">
-        <v>1951.483548980261</v>
+        <v>2035.81808441777</v>
       </c>
       <c r="Q38" t="n">
-        <v>2012.049436748534</v>
+        <v>2096.383972186044</v>
       </c>
       <c r="R38" t="n">
         <v>2096.383972186044</v>
@@ -7208,10 +7208,10 @@
         <v>2011.069713029952</v>
       </c>
       <c r="V38" t="n">
-        <v>1874.987708418626</v>
+        <v>1874.987708418625</v>
       </c>
       <c r="W38" t="n">
-        <v>1716.686617465849</v>
+        <v>1716.686617465848</v>
       </c>
       <c r="X38" t="n">
         <v>1537.848675876087</v>
@@ -7227,25 +7227,25 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>664.8344201434883</v>
+        <v>840.7101681428069</v>
       </c>
       <c r="C39" t="n">
-        <v>492.0813050653055</v>
+        <v>667.957053064624</v>
       </c>
       <c r="D39" t="n">
-        <v>344.4929984242493</v>
+        <v>667.957053064624</v>
       </c>
       <c r="E39" t="n">
-        <v>186.883469427104</v>
+        <v>510.3475240674787</v>
       </c>
       <c r="F39" t="n">
-        <v>41.92767944372088</v>
+        <v>365.3917340840956</v>
       </c>
       <c r="G39" t="n">
-        <v>41.92767944372088</v>
+        <v>228.280411328786</v>
       </c>
       <c r="H39" t="n">
-        <v>41.92767944372088</v>
+        <v>119.4629115606532</v>
       </c>
       <c r="I39" t="n">
         <v>41.92767944372088</v>
@@ -7263,40 +7263,40 @@
         <v>982.4685439431305</v>
       </c>
       <c r="N39" t="n">
-        <v>1422.089586868058</v>
+        <v>1392.83213548586</v>
       </c>
       <c r="O39" t="n">
-        <v>1756.628935509045</v>
+        <v>1727.371484126847</v>
       </c>
       <c r="P39" t="n">
-        <v>2008.699715224712</v>
+        <v>1979.442263842514</v>
       </c>
       <c r="Q39" t="n">
         <v>2096.383972186044</v>
       </c>
       <c r="R39" t="n">
-        <v>2096.383972186044</v>
+        <v>2018.480827591542</v>
       </c>
       <c r="S39" t="n">
-        <v>2096.383972186044</v>
+        <v>1970.103320711337</v>
       </c>
       <c r="T39" t="n">
-        <v>1957.805675727988</v>
+        <v>1966.638872605746</v>
       </c>
       <c r="U39" t="n">
-        <v>1730.898040776887</v>
+        <v>1739.731237654645</v>
       </c>
       <c r="V39" t="n">
-        <v>1496.646797302487</v>
+        <v>1505.479994180246</v>
       </c>
       <c r="W39" t="n">
-        <v>1244.132305635821</v>
+        <v>1252.965502513579</v>
       </c>
       <c r="X39" t="n">
-        <v>1037.605407041398</v>
+        <v>1046.438603919156</v>
       </c>
       <c r="Y39" t="n">
-        <v>831.8769712650487</v>
+        <v>840.7101681428069</v>
       </c>
     </row>
     <row r="40">
@@ -7357,22 +7357,22 @@
         <v>404.603574170245</v>
       </c>
       <c r="S40" t="n">
-        <v>379.7092907467912</v>
+        <v>379.9463968178146</v>
       </c>
       <c r="T40" t="n">
-        <v>345.8641501500485</v>
+        <v>346.101256221072</v>
       </c>
       <c r="U40" t="n">
-        <v>252.7052692671645</v>
+        <v>252.942375338188</v>
       </c>
       <c r="V40" t="n">
-        <v>192.9837398634944</v>
+        <v>193.2208459345179</v>
       </c>
       <c r="W40" t="n">
-        <v>99.7710732674239</v>
+        <v>100.0081793384474</v>
       </c>
       <c r="X40" t="n">
-        <v>67.11620157550117</v>
+        <v>67.35330764652471</v>
       </c>
       <c r="Y40" t="n">
         <v>41.92767944372088</v>
@@ -7385,19 +7385,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1151.20280938314</v>
+        <v>1151.202809383139</v>
       </c>
       <c r="C41" t="n">
-        <v>976.2805278461327</v>
+        <v>976.2805278461323</v>
       </c>
       <c r="D41" t="n">
-        <v>811.843461384221</v>
+        <v>811.8434613842205</v>
       </c>
       <c r="E41" t="n">
-        <v>620.6252807801991</v>
+        <v>620.6252807801986</v>
       </c>
       <c r="F41" t="n">
-        <v>404.9870721708707</v>
+        <v>404.9870721708702</v>
       </c>
       <c r="G41" t="n">
         <v>182.2458581786623</v>
@@ -7406,31 +7406,31 @@
         <v>41.92767944372089</v>
       </c>
       <c r="I41" t="n">
-        <v>41.92767944372089</v>
+        <v>50.81705934118646</v>
       </c>
       <c r="J41" t="n">
-        <v>277.5919753607965</v>
+        <v>94.60743867052939</v>
       </c>
       <c r="K41" t="n">
-        <v>465.498995222278</v>
+        <v>282.514458532011</v>
       </c>
       <c r="L41" t="n">
-        <v>750.5833473588931</v>
+        <v>567.598810668626</v>
       </c>
       <c r="M41" t="n">
-        <v>1083.006912842844</v>
+        <v>1080.036246422849</v>
       </c>
       <c r="N41" t="n">
-        <v>1405.292264162194</v>
+        <v>1594.195514329932</v>
       </c>
       <c r="O41" t="n">
-        <v>1663.488831113659</v>
+        <v>1852.392081281397</v>
       </c>
       <c r="P41" t="n">
-        <v>1846.914834250033</v>
+        <v>2035.818084417771</v>
       </c>
       <c r="Q41" t="n">
-        <v>2012.049436748535</v>
+        <v>2096.383972186045</v>
       </c>
       <c r="R41" t="n">
         <v>2096.383972186045</v>
@@ -7442,16 +7442,16 @@
         <v>2069.275180193286</v>
       </c>
       <c r="U41" t="n">
-        <v>2011.069713029953</v>
+        <v>2011.069713029952</v>
       </c>
       <c r="V41" t="n">
-        <v>1874.987708418627</v>
+        <v>1874.987708418626</v>
       </c>
       <c r="W41" t="n">
-        <v>1716.68661746585</v>
+        <v>1716.686617465849</v>
       </c>
       <c r="X41" t="n">
-        <v>1537.848675876089</v>
+        <v>1537.848675876088</v>
       </c>
       <c r="Y41" t="n">
         <v>1343.025408407472</v>
@@ -7464,19 +7464,19 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>851.1871520285533</v>
+        <v>695.7543781594238</v>
       </c>
       <c r="C42" t="n">
-        <v>678.4340369503705</v>
+        <v>523.0012630812409</v>
       </c>
       <c r="D42" t="n">
-        <v>530.8457303093144</v>
+        <v>523.0012630812409</v>
       </c>
       <c r="E42" t="n">
-        <v>373.2362013121691</v>
+        <v>365.3917340840956</v>
       </c>
       <c r="F42" t="n">
-        <v>228.280411328786</v>
+        <v>365.3917340840956</v>
       </c>
       <c r="G42" t="n">
         <v>228.280411328786</v>
@@ -7500,13 +7500,13 @@
         <v>982.4685439431305</v>
       </c>
       <c r="N42" t="n">
-        <v>1422.089586868058</v>
+        <v>1392.832135485861</v>
       </c>
       <c r="O42" t="n">
-        <v>1756.628935509045</v>
+        <v>1727.371484126848</v>
       </c>
       <c r="P42" t="n">
-        <v>2008.699715224712</v>
+        <v>1979.442263842515</v>
       </c>
       <c r="Q42" t="n">
         <v>2096.383972186045</v>
@@ -7515,25 +7515,25 @@
         <v>2096.383972186045</v>
       </c>
       <c r="S42" t="n">
-        <v>1951.853121418335</v>
+        <v>1992.190081849514</v>
       </c>
       <c r="T42" t="n">
-        <v>1948.388673312744</v>
+        <v>1792.955899443614</v>
       </c>
       <c r="U42" t="n">
-        <v>1721.481038361643</v>
+        <v>1566.048264492513</v>
       </c>
       <c r="V42" t="n">
-        <v>1487.229794887244</v>
+        <v>1331.797021018114</v>
       </c>
       <c r="W42" t="n">
-        <v>1234.715303220577</v>
+        <v>1275.052263651756</v>
       </c>
       <c r="X42" t="n">
-        <v>1028.188404626155</v>
+        <v>1068.525365057334</v>
       </c>
       <c r="Y42" t="n">
-        <v>1018.229703150114</v>
+        <v>862.7969292809843</v>
       </c>
     </row>
     <row r="43">
@@ -7588,28 +7588,28 @@
         <v>404.603574170245</v>
       </c>
       <c r="Q43" t="n">
-        <v>404.603574170245</v>
+        <v>404.3664680992214</v>
       </c>
       <c r="R43" t="n">
-        <v>404.603574170245</v>
+        <v>404.3664680992214</v>
       </c>
       <c r="S43" t="n">
-        <v>379.7092907467914</v>
+        <v>379.7092907467911</v>
       </c>
       <c r="T43" t="n">
-        <v>345.8641501500487</v>
+        <v>345.8641501500484</v>
       </c>
       <c r="U43" t="n">
-        <v>252.7052692671647</v>
+        <v>252.7052692671645</v>
       </c>
       <c r="V43" t="n">
-        <v>192.9837398634945</v>
+        <v>192.9837398634943</v>
       </c>
       <c r="W43" t="n">
-        <v>99.77107326742399</v>
+        <v>99.77107326742387</v>
       </c>
       <c r="X43" t="n">
-        <v>67.11620157550121</v>
+        <v>67.11620157550115</v>
       </c>
       <c r="Y43" t="n">
         <v>41.92767944372089</v>
@@ -7643,28 +7643,28 @@
         <v>41.92767944372089</v>
       </c>
       <c r="I44" t="n">
-        <v>41.92767944372089</v>
+        <v>50.81705934118642</v>
       </c>
       <c r="J44" t="n">
-        <v>85.71805877306386</v>
+        <v>286.4813552582621</v>
       </c>
       <c r="K44" t="n">
-        <v>273.6250786345455</v>
+        <v>474.3883751197437</v>
       </c>
       <c r="L44" t="n">
-        <v>558.7094307711607</v>
+        <v>759.4727272563589</v>
       </c>
       <c r="M44" t="n">
-        <v>891.1329962551119</v>
+        <v>1091.89629274031</v>
       </c>
       <c r="N44" t="n">
-        <v>1405.292264162194</v>
+        <v>1594.195514329931</v>
       </c>
       <c r="O44" t="n">
-        <v>1663.488831113659</v>
+        <v>1852.392081281396</v>
       </c>
       <c r="P44" t="n">
-        <v>1846.914834250033</v>
+        <v>2035.818084417771</v>
       </c>
       <c r="Q44" t="n">
         <v>2096.383972186045</v>
@@ -7701,19 +7701,19 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>693.5776230314082</v>
+        <v>510.3475240674787</v>
       </c>
       <c r="C45" t="n">
-        <v>520.8245079532253</v>
+        <v>510.3475240674787</v>
       </c>
       <c r="D45" t="n">
-        <v>373.2362013121691</v>
+        <v>510.3475240674787</v>
       </c>
       <c r="E45" t="n">
-        <v>373.2362013121691</v>
+        <v>510.3475240674787</v>
       </c>
       <c r="F45" t="n">
-        <v>228.2804113287859</v>
+        <v>365.3917340840956</v>
       </c>
       <c r="G45" t="n">
         <v>228.2804113287859</v>
@@ -7749,28 +7749,28 @@
         <v>2096.383972186045</v>
       </c>
       <c r="R45" t="n">
-        <v>2096.383972186045</v>
+        <v>2018.480827591543</v>
       </c>
       <c r="S45" t="n">
-        <v>2096.383972186045</v>
+        <v>1853.122241280265</v>
       </c>
       <c r="T45" t="n">
-        <v>1986.548878615908</v>
+        <v>1653.888058874366</v>
       </c>
       <c r="U45" t="n">
-        <v>1759.641243664807</v>
+        <v>1426.980423923265</v>
       </c>
       <c r="V45" t="n">
-        <v>1525.390000190408</v>
+        <v>1192.729180448865</v>
       </c>
       <c r="W45" t="n">
-        <v>1272.875508523741</v>
+        <v>940.2146887821988</v>
       </c>
       <c r="X45" t="n">
-        <v>1066.348609929318</v>
+        <v>733.6877901877763</v>
       </c>
       <c r="Y45" t="n">
-        <v>860.6201741529686</v>
+        <v>527.9593544114267</v>
       </c>
     </row>
     <row r="46">
@@ -7825,10 +7825,10 @@
         <v>404.6035741702452</v>
       </c>
       <c r="Q46" t="n">
-        <v>404.6035741702452</v>
+        <v>404.3664680992218</v>
       </c>
       <c r="R46" t="n">
-        <v>404.6035741702452</v>
+        <v>404.3664680992218</v>
       </c>
       <c r="S46" t="n">
         <v>379.7092907467913</v>
@@ -8693,22 +8693,22 @@
         <v>147.3061585068583</v>
       </c>
       <c r="L11" t="n">
-        <v>146.4036710752815</v>
+        <v>266.8730544583518</v>
       </c>
       <c r="M11" t="n">
-        <v>186.1369646928407</v>
+        <v>252.1820789388978</v>
       </c>
       <c r="N11" t="n">
-        <v>249.7694258630999</v>
+        <v>244.9019760294405</v>
       </c>
       <c r="O11" t="n">
         <v>255.6969588140377</v>
       </c>
       <c r="P11" t="n">
-        <v>269.8612488345696</v>
+        <v>149.3918654514993</v>
       </c>
       <c r="Q11" t="n">
-        <v>220.8075902863009</v>
+        <v>159.6299258739032</v>
       </c>
       <c r="R11" t="n">
         <v>68.34507666790174</v>
@@ -8766,7 +8766,7 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J12" t="n">
-        <v>96.92932815169496</v>
+        <v>131.1346767540252</v>
       </c>
       <c r="K12" t="n">
         <v>88.69699977354594</v>
@@ -8778,13 +8778,13 @@
         <v>187.3441492342267</v>
       </c>
       <c r="N12" t="n">
-        <v>174.9237931802369</v>
+        <v>135.8509947442473</v>
       </c>
       <c r="O12" t="n">
         <v>192.1676614500741</v>
       </c>
       <c r="P12" t="n">
-        <v>192.1862637272012</v>
+        <v>197.0537135608606</v>
       </c>
       <c r="Q12" t="n">
         <v>100.3574415245459</v>
@@ -8927,16 +8927,16 @@
         <v>175.8604797789567</v>
       </c>
       <c r="K14" t="n">
-        <v>267.7755418899286</v>
+        <v>157.4977212505959</v>
       </c>
       <c r="L14" t="n">
-        <v>266.8730544583518</v>
+        <v>146.4036710752815</v>
       </c>
       <c r="M14" t="n">
-        <v>141.904258299565</v>
+        <v>252.1820789388978</v>
       </c>
       <c r="N14" t="n">
-        <v>129.3000424800296</v>
+        <v>249.7694258630999</v>
       </c>
       <c r="O14" t="n">
         <v>135.2275754309674</v>
@@ -9006,25 +9006,25 @@
         <v>131.1346767540252</v>
       </c>
       <c r="K15" t="n">
-        <v>170.0935847206267</v>
+        <v>209.1663831566163</v>
       </c>
       <c r="L15" t="n">
         <v>73.64337761417629</v>
       </c>
       <c r="M15" t="n">
-        <v>187.3441492342267</v>
+        <v>66.87476585115634</v>
       </c>
       <c r="N15" t="n">
-        <v>174.9237931802368</v>
+        <v>174.9237931802369</v>
       </c>
       <c r="O15" t="n">
-        <v>192.1676614500741</v>
+        <v>71.69827806700377</v>
       </c>
       <c r="P15" t="n">
-        <v>76.58433017779026</v>
+        <v>160.3273607872042</v>
       </c>
       <c r="Q15" t="n">
-        <v>100.3574415245459</v>
+        <v>218.4803792452831</v>
       </c>
       <c r="R15" t="n">
         <v>47.34253660377365</v>
@@ -9161,16 +9161,16 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>131.627773385681</v>
+        <v>175.8604797789567</v>
       </c>
       <c r="K17" t="n">
         <v>267.7755418899286</v>
       </c>
       <c r="L17" t="n">
-        <v>262.0056046246924</v>
+        <v>156.5952338190191</v>
       </c>
       <c r="M17" t="n">
-        <v>252.1820789388978</v>
+        <v>131.7126955558274</v>
       </c>
       <c r="N17" t="n">
         <v>249.7694258630999</v>
@@ -9179,10 +9179,10 @@
         <v>135.2275754309674</v>
       </c>
       <c r="P17" t="n">
-        <v>149.3918654514993</v>
+        <v>269.8612488345696</v>
       </c>
       <c r="Q17" t="n">
-        <v>159.6299258739032</v>
+        <v>220.8075902863009</v>
       </c>
       <c r="R17" t="n">
         <v>68.34507666790174</v>
@@ -9240,25 +9240,25 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J18" t="n">
-        <v>96.92932815169496</v>
+        <v>131.1346767540252</v>
       </c>
       <c r="K18" t="n">
-        <v>88.69699977354594</v>
+        <v>209.1663831566163</v>
       </c>
       <c r="L18" t="n">
-        <v>73.64337761417629</v>
+        <v>155.039962561257</v>
       </c>
       <c r="M18" t="n">
         <v>187.3441492342267</v>
       </c>
       <c r="N18" t="n">
-        <v>174.9237931802369</v>
+        <v>174.9237931802368</v>
       </c>
       <c r="O18" t="n">
-        <v>192.1676614500741</v>
+        <v>71.69827806700377</v>
       </c>
       <c r="P18" t="n">
-        <v>192.1862637272012</v>
+        <v>76.58433017779026</v>
       </c>
       <c r="Q18" t="n">
         <v>100.3574415245459</v>
@@ -9401,25 +9401,25 @@
         <v>175.8604797789567</v>
       </c>
       <c r="K20" t="n">
-        <v>147.3061585068583</v>
+        <v>267.7755418899286</v>
       </c>
       <c r="L20" t="n">
-        <v>217.7728982314167</v>
+        <v>156.5952338190191</v>
       </c>
       <c r="M20" t="n">
         <v>252.1820789388978</v>
       </c>
       <c r="N20" t="n">
-        <v>249.7694258630999</v>
+        <v>129.3000424800296</v>
       </c>
       <c r="O20" t="n">
-        <v>255.6969588140377</v>
+        <v>135.2275754309674</v>
       </c>
       <c r="P20" t="n">
-        <v>149.3918654514993</v>
+        <v>269.8612488345696</v>
       </c>
       <c r="Q20" t="n">
-        <v>159.6299258739032</v>
+        <v>220.8075902863009</v>
       </c>
       <c r="R20" t="n">
         <v>68.34507666790174</v>
@@ -9477,28 +9477,28 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J21" t="n">
-        <v>96.92932815169496</v>
+        <v>131.1346767540252</v>
       </c>
       <c r="K21" t="n">
-        <v>88.69699977354594</v>
+        <v>209.1663831566163</v>
       </c>
       <c r="L21" t="n">
-        <v>194.1127609972466</v>
+        <v>73.64337761417629</v>
       </c>
       <c r="M21" t="n">
-        <v>187.3441492342267</v>
+        <v>66.87476585115634</v>
       </c>
       <c r="N21" t="n">
-        <v>174.9237931802369</v>
+        <v>54.45440979716652</v>
       </c>
       <c r="O21" t="n">
-        <v>187.3002116164147</v>
+        <v>155.4413086764177</v>
       </c>
       <c r="P21" t="n">
-        <v>76.58433017779026</v>
+        <v>197.0537135608606</v>
       </c>
       <c r="Q21" t="n">
-        <v>100.3574415245459</v>
+        <v>218.4803792452831</v>
       </c>
       <c r="R21" t="n">
         <v>47.34253660377365</v>
@@ -9638,25 +9638,25 @@
         <v>131.627773385681</v>
       </c>
       <c r="K23" t="n">
-        <v>267.7755418899287</v>
+        <v>267.7755418899286</v>
       </c>
       <c r="L23" t="n">
-        <v>146.4036710752815</v>
+        <v>266.8730544583518</v>
       </c>
       <c r="M23" t="n">
-        <v>252.1820789388979</v>
+        <v>186.1369646928407</v>
       </c>
       <c r="N23" t="n">
-        <v>244.9019760294406</v>
+        <v>129.3000424800296</v>
       </c>
       <c r="O23" t="n">
         <v>135.2275754309674</v>
       </c>
       <c r="P23" t="n">
-        <v>269.8612488345697</v>
+        <v>269.8612488345696</v>
       </c>
       <c r="Q23" t="n">
-        <v>159.6299258739032</v>
+        <v>220.8075902863009</v>
       </c>
       <c r="R23" t="n">
         <v>68.34507666790174</v>
@@ -9717,22 +9717,22 @@
         <v>96.92932815169496</v>
       </c>
       <c r="K24" t="n">
-        <v>88.69699977354594</v>
+        <v>209.1663831566163</v>
       </c>
       <c r="L24" t="n">
-        <v>194.1127609972467</v>
+        <v>73.64337761417629</v>
       </c>
       <c r="M24" t="n">
-        <v>187.3441492342268</v>
+        <v>66.87476585115634</v>
       </c>
       <c r="N24" t="n">
-        <v>170.0563433465775</v>
+        <v>174.9237931802369</v>
       </c>
       <c r="O24" t="n">
-        <v>192.1676614500742</v>
+        <v>187.3002116164147</v>
       </c>
       <c r="P24" t="n">
-        <v>76.58433017779026</v>
+        <v>197.0537135608606</v>
       </c>
       <c r="Q24" t="n">
         <v>100.3574415245459</v>
@@ -10665,7 +10665,7 @@
         <v>131.1346767540252</v>
       </c>
       <c r="K36" t="n">
-        <v>275.0438464930818</v>
+        <v>245.4908652989423</v>
       </c>
       <c r="L36" t="n">
         <v>385.6739591155975</v>
@@ -10683,7 +10683,7 @@
         <v>331.2012793855346</v>
       </c>
       <c r="Q36" t="n">
-        <v>188.9273980511437</v>
+        <v>218.4803792452831</v>
       </c>
       <c r="R36" t="n">
         <v>47.34253660377365</v>
@@ -10911,7 +10911,7 @@
         <v>484.3332662999999</v>
       </c>
       <c r="N39" t="n">
-        <v>498.5160693172957</v>
+        <v>468.9630881231563</v>
       </c>
       <c r="O39" t="n">
         <v>409.6168120477987</v>
@@ -10920,7 +10920,7 @@
         <v>331.2012793855346</v>
       </c>
       <c r="Q39" t="n">
-        <v>188.9273980511437</v>
+        <v>218.4803792452831</v>
       </c>
       <c r="R39" t="n">
         <v>47.34253660377365</v>
@@ -11148,7 +11148,7 @@
         <v>484.3332662999999</v>
       </c>
       <c r="N42" t="n">
-        <v>498.5160693172957</v>
+        <v>468.9630881231568</v>
       </c>
       <c r="O42" t="n">
         <v>409.6168120477987</v>
@@ -11157,7 +11157,7 @@
         <v>331.2012793855346</v>
       </c>
       <c r="Q42" t="n">
-        <v>188.9273980511442</v>
+        <v>218.4803792452831</v>
       </c>
       <c r="R42" t="n">
         <v>47.34253660377365</v>
@@ -23255,25 +23255,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>60.4425975568997</v>
+        <v>60.44259755689978</v>
       </c>
       <c r="C11" t="n">
-        <v>164.1806666275176</v>
+        <v>164.1806666275177</v>
       </c>
       <c r="D11" t="n">
-        <v>153.8003037031734</v>
+        <v>153.8003037031735</v>
       </c>
       <c r="E11" t="n">
         <v>180.3136067038625</v>
       </c>
       <c r="F11" t="n">
-        <v>84.0200510460455</v>
+        <v>204.4894344291159</v>
       </c>
       <c r="G11" t="n">
-        <v>105.4119768743581</v>
+        <v>91.05202637509612</v>
       </c>
       <c r="H11" t="n">
-        <v>129.9226048534727</v>
+        <v>9.45322147040244</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23309,22 +23309,22 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>17.84531197871178</v>
+        <v>17.84531197871189</v>
       </c>
       <c r="U11" t="n">
-        <v>48.63102039758027</v>
+        <v>48.63102039758036</v>
       </c>
       <c r="V11" t="n">
         <v>125.7287924710944</v>
       </c>
       <c r="W11" t="n">
-        <v>147.7256879491296</v>
+        <v>147.7256879491297</v>
       </c>
       <c r="X11" t="n">
-        <v>47.58778669667404</v>
+        <v>61.9477371959362</v>
       </c>
       <c r="Y11" t="n">
-        <v>183.8826426998108</v>
+        <v>183.8826426998109</v>
       </c>
     </row>
     <row r="12">
@@ -23492,25 +23492,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>60.44259755689971</v>
+        <v>180.9119809399701</v>
       </c>
       <c r="C14" t="n">
-        <v>164.1806666275176</v>
+        <v>43.71128324444729</v>
       </c>
       <c r="D14" t="n">
         <v>153.8003037031734</v>
       </c>
       <c r="E14" t="n">
-        <v>180.3136067038625</v>
+        <v>74.20417382005419</v>
       </c>
       <c r="F14" t="n">
         <v>204.4894344291158</v>
       </c>
       <c r="G14" t="n">
-        <v>91.05202637509605</v>
+        <v>211.5214097581664</v>
       </c>
       <c r="H14" t="n">
-        <v>9.453221470402369</v>
+        <v>129.9226048534727</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23555,10 +23555,10 @@
         <v>125.7287924710944</v>
       </c>
       <c r="W14" t="n">
-        <v>147.7256879491296</v>
+        <v>27.25630456605924</v>
       </c>
       <c r="X14" t="n">
-        <v>61.94773719593611</v>
+        <v>47.58778669667404</v>
       </c>
       <c r="Y14" t="n">
         <v>183.8826426998108</v>
@@ -26311,46 +26311,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>345166.4605461897</v>
+        <v>345166.4605461896</v>
       </c>
       <c r="C2" t="n">
-        <v>345166.4605461897</v>
+        <v>345166.4605461898</v>
       </c>
       <c r="D2" t="n">
-        <v>345166.4605461899</v>
+        <v>345166.4605461898</v>
       </c>
       <c r="E2" t="n">
-        <v>296879.3987947899</v>
+        <v>296879.3987947897</v>
       </c>
       <c r="F2" t="n">
-        <v>296879.3987947899</v>
+        <v>296879.3987947896</v>
       </c>
       <c r="G2" t="n">
+        <v>345915.748661348</v>
+      </c>
+      <c r="H2" t="n">
         <v>345915.7486613481</v>
       </c>
-      <c r="H2" t="n">
+      <c r="I2" t="n">
+        <v>345915.7486613481</v>
+      </c>
+      <c r="J2" t="n">
         <v>345915.748661348</v>
       </c>
-      <c r="I2" t="n">
-        <v>345915.748661348</v>
-      </c>
-      <c r="J2" t="n">
-        <v>345915.7486613479</v>
-      </c>
       <c r="K2" t="n">
-        <v>345915.748661348</v>
+        <v>345915.7486613482</v>
       </c>
       <c r="L2" t="n">
         <v>345915.748661348</v>
       </c>
       <c r="M2" t="n">
-        <v>345915.748661348</v>
+        <v>345915.7486613478</v>
       </c>
       <c r="N2" t="n">
-        <v>345915.748661348</v>
+        <v>345915.7486613479</v>
       </c>
       <c r="O2" t="n">
-        <v>345915.748661348</v>
+        <v>345915.7486613478</v>
       </c>
       <c r="P2" t="n">
         <v>345915.7486613481</v>
@@ -26375,13 +26375,13 @@
         <v>303917.1774251077</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-11</v>
       </c>
       <c r="G3" t="n">
         <v>100583.0339768755</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-11</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26390,19 +26390,19 @@
         <v>166180.0073458106</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>5.145141455743993e-11</v>
       </c>
       <c r="L3" t="n">
-        <v>100583.0339768756</v>
+        <v>100583.0339768755</v>
       </c>
       <c r="M3" t="n">
-        <v>25413.16024781972</v>
+        <v>25413.16024781981</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-11</v>
       </c>
       <c r="O3" t="n">
-        <v>29053.43534114929</v>
+        <v>29053.43534114925</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26424,34 +26424,34 @@
         <v>459145.3766997027</v>
       </c>
       <c r="E4" t="n">
-        <v>349359.7455095868</v>
+        <v>349359.7455095867</v>
       </c>
       <c r="F4" t="n">
         <v>349359.7455095868</v>
       </c>
       <c r="G4" t="n">
+        <v>415214.6490622307</v>
+      </c>
+      <c r="H4" t="n">
         <v>415214.6490622308</v>
       </c>
-      <c r="H4" t="n">
-        <v>415214.6490622307</v>
-      </c>
       <c r="I4" t="n">
-        <v>415214.6490622307</v>
+        <v>415214.6490622308</v>
       </c>
       <c r="J4" t="n">
-        <v>414865.9762198931</v>
+        <v>414865.9762198932</v>
       </c>
       <c r="K4" t="n">
-        <v>414865.9762198931</v>
+        <v>414865.9762198932</v>
       </c>
       <c r="L4" t="n">
         <v>414865.9762198932</v>
       </c>
       <c r="M4" t="n">
-        <v>414308.3928801181</v>
+        <v>414308.392880118</v>
       </c>
       <c r="N4" t="n">
-        <v>414308.3928801181</v>
+        <v>414308.3928801182</v>
       </c>
       <c r="O4" t="n">
         <v>414308.3928801181</v>
@@ -26488,13 +26488,13 @@
         <v>37812.23459877982</v>
       </c>
       <c r="I5" t="n">
-        <v>37812.23459877982</v>
+        <v>37812.23459877983</v>
       </c>
       <c r="J5" t="n">
-        <v>55680.82199970228</v>
+        <v>55680.82199970229</v>
       </c>
       <c r="K5" t="n">
-        <v>55680.82199970228</v>
+        <v>55680.82199970229</v>
       </c>
       <c r="L5" t="n">
         <v>55680.82199970229</v>
@@ -26506,7 +26506,7 @@
         <v>51026.85720110407</v>
       </c>
       <c r="O5" t="n">
-        <v>51026.85720110407</v>
+        <v>51026.85720110408</v>
       </c>
       <c r="P5" t="n">
         <v>51026.85720110407</v>
@@ -26519,25 +26519,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-147606.516153513</v>
+        <v>-147610.9237306611</v>
       </c>
       <c r="C6" t="n">
-        <v>-147606.516153513</v>
+        <v>-147610.9237306609</v>
       </c>
       <c r="D6" t="n">
-        <v>-147606.5161535128</v>
+        <v>-147610.9237306609</v>
       </c>
       <c r="E6" t="n">
-        <v>-383639.8648844321</v>
+        <v>-383928.3140012941</v>
       </c>
       <c r="F6" t="n">
-        <v>-79722.68745932428</v>
+        <v>-80011.13657618668</v>
       </c>
       <c r="G6" t="n">
-        <v>-207694.1689765381</v>
+        <v>-207694.168976538</v>
       </c>
       <c r="H6" t="n">
-        <v>-107111.1349996625</v>
+        <v>-107111.1349996626</v>
       </c>
       <c r="I6" t="n">
         <v>-107111.1349996625</v>
@@ -26546,19 +26546,19 @@
         <v>-290811.0569040581</v>
       </c>
       <c r="K6" t="n">
-        <v>-124631.0495582475</v>
+        <v>-124631.0495582474</v>
       </c>
       <c r="L6" t="n">
-        <v>-225214.0835351231</v>
+        <v>-225214.0835351229</v>
       </c>
       <c r="M6" t="n">
-        <v>-144832.6616676939</v>
+        <v>-144832.661667694</v>
       </c>
       <c r="N6" t="n">
-        <v>-119419.5014198742</v>
+        <v>-119419.5014198743</v>
       </c>
       <c r="O6" t="n">
-        <v>-148472.9367610235</v>
+        <v>-148472.9367610236</v>
       </c>
       <c r="P6" t="n">
         <v>-119419.5014198741</v>
@@ -26692,37 +26692,37 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>202.804429051425</v>
+        <v>202.8044290514249</v>
       </c>
       <c r="F2" t="n">
         <v>202.804429051425</v>
       </c>
       <c r="G2" t="n">
+        <v>328.5332215225193</v>
+      </c>
+      <c r="H2" t="n">
         <v>328.5332215225194</v>
       </c>
-      <c r="H2" t="n">
-        <v>328.5332215225193</v>
-      </c>
       <c r="I2" t="n">
-        <v>328.5332215225193</v>
+        <v>328.5332215225194</v>
       </c>
       <c r="J2" t="n">
+        <v>162.0455866475311</v>
+      </c>
+      <c r="K2" t="n">
+        <v>162.0455866475311</v>
+      </c>
+      <c r="L2" t="n">
         <v>162.045586647531</v>
       </c>
-      <c r="K2" t="n">
-        <v>162.045586647531</v>
-      </c>
-      <c r="L2" t="n">
-        <v>162.0455866475311</v>
-      </c>
       <c r="M2" t="n">
+        <v>193.8120369573057</v>
+      </c>
+      <c r="N2" t="n">
         <v>193.8120369573058</v>
       </c>
-      <c r="N2" t="n">
-        <v>193.8120369573057</v>
-      </c>
       <c r="O2" t="n">
-        <v>193.8120369573057</v>
+        <v>193.8120369573058</v>
       </c>
       <c r="P2" t="n">
         <v>193.8120369573057</v>
@@ -26799,7 +26799,7 @@
         <v>120.4693833830704</v>
       </c>
       <c r="F4" t="n">
-        <v>120.4693833830703</v>
+        <v>120.4693833830704</v>
       </c>
       <c r="G4" t="n">
         <v>120.4693833830703</v>
@@ -26808,7 +26808,7 @@
         <v>120.4693833830703</v>
       </c>
       <c r="I4" t="n">
-        <v>120.4693833830705</v>
+        <v>120.4693833830704</v>
       </c>
       <c r="J4" t="n">
         <v>644.5653764295813</v>
@@ -26914,37 +26914,37 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>202.804429051425</v>
+        <v>202.8044290514249</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>6.394884621840902e-14</v>
       </c>
       <c r="G2" t="n">
         <v>125.7287924710944</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-14</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>36.31679417643664</v>
+        <v>36.31679417643656</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>6.431426819679991e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>125.7287924710945</v>
+        <v>125.7287924710943</v>
       </c>
       <c r="M2" t="n">
-        <v>31.76645030977465</v>
+        <v>31.76645030977477</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="O2" t="n">
-        <v>36.31679417643662</v>
+        <v>36.31679417643656</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>524.0959930465109</v>
+        <v>524.095993046511</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27151,25 +27151,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>202.804429051425</v>
+        <v>202.8044290514249</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>6.394884621840902e-14</v>
       </c>
       <c r="L2" t="n">
         <v>125.7287924710944</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-14</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>36.31679417643664</v>
+        <v>36.31679417643656</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>6.431426819679991e-14</v>
       </c>
     </row>
     <row r="3">
@@ -28087,25 +28087,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>202.804429051425</v>
+        <v>202.8044290514249</v>
       </c>
       <c r="C11" t="n">
-        <v>202.804429051425</v>
+        <v>202.8044290514249</v>
       </c>
       <c r="D11" t="n">
-        <v>202.804429051425</v>
+        <v>202.8044290514249</v>
       </c>
       <c r="E11" t="n">
-        <v>202.804429051425</v>
+        <v>202.8044290514249</v>
       </c>
       <c r="F11" t="n">
-        <v>202.804429051425</v>
+        <v>202.8044290514249</v>
       </c>
       <c r="G11" t="n">
-        <v>202.804429051425</v>
+        <v>202.8044290514249</v>
       </c>
       <c r="H11" t="n">
-        <v>202.804429051425</v>
+        <v>202.8044290514249</v>
       </c>
       <c r="I11" t="n">
         <v>184.8328653437042</v>
@@ -28141,22 +28141,22 @@
         <v>193.8120369573057</v>
       </c>
       <c r="T11" t="n">
-        <v>202.804429051425</v>
+        <v>202.8044290514249</v>
       </c>
       <c r="U11" t="n">
-        <v>202.804429051425</v>
+        <v>202.8044290514249</v>
       </c>
       <c r="V11" t="n">
-        <v>202.804429051425</v>
+        <v>202.8044290514249</v>
       </c>
       <c r="W11" t="n">
-        <v>202.804429051425</v>
+        <v>202.8044290514249</v>
       </c>
       <c r="X11" t="n">
-        <v>202.804429051425</v>
+        <v>202.8044290514249</v>
       </c>
       <c r="Y11" t="n">
-        <v>202.804429051425</v>
+        <v>202.8044290514249</v>
       </c>
     </row>
     <row r="12">
@@ -28166,10 +28166,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>165.3721256103448</v>
+        <v>44.90274222727447</v>
       </c>
       <c r="C12" t="n">
-        <v>171.025583927401</v>
+        <v>50.55620054433064</v>
       </c>
       <c r="D12" t="n">
         <v>146.1124235746456</v>
@@ -28181,10 +28181,10 @@
         <v>143.5062320835493</v>
       </c>
       <c r="G12" t="n">
-        <v>135.7402095277565</v>
+        <v>130.2780488051334</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>107.7293247704514</v>
       </c>
       <c r="I12" t="n">
         <v>76.75987979576298</v>
@@ -28214,28 +28214,28 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>77.12411314855667</v>
       </c>
       <c r="S12" t="n">
         <v>163.7050004481646</v>
       </c>
       <c r="T12" t="n">
-        <v>197.2418405818404</v>
+        <v>76.77245719877001</v>
       </c>
       <c r="U12" t="n">
-        <v>185.4371031779341</v>
+        <v>202.8044290514249</v>
       </c>
       <c r="V12" t="n">
-        <v>111.4393476565848</v>
+        <v>202.8044290514249</v>
       </c>
       <c r="W12" t="n">
-        <v>129.5199633669297</v>
+        <v>202.8044290514249</v>
       </c>
       <c r="X12" t="n">
-        <v>202.804429051425</v>
+        <v>202.8044290514249</v>
       </c>
       <c r="Y12" t="n">
-        <v>202.804429051425</v>
+        <v>202.8044290514249</v>
       </c>
     </row>
     <row r="13">
@@ -28251,7 +28251,7 @@
         <v>167.3365529312023</v>
       </c>
       <c r="D13" t="n">
-        <v>149.0055665145194</v>
+        <v>85.82408684537199</v>
       </c>
       <c r="E13" t="n">
         <v>146.9746241731992</v>
@@ -28296,25 +28296,25 @@
         <v>162.723153487679</v>
       </c>
       <c r="S13" t="n">
-        <v>202.804429051425</v>
+        <v>202.8044290514249</v>
       </c>
       <c r="T13" t="n">
-        <v>202.804429051425</v>
+        <v>202.8044290514249</v>
       </c>
       <c r="U13" t="n">
-        <v>202.804429051425</v>
+        <v>202.8044290514249</v>
       </c>
       <c r="V13" t="n">
-        <v>202.804429051425</v>
+        <v>202.8044290514249</v>
       </c>
       <c r="W13" t="n">
-        <v>202.804429051425</v>
+        <v>202.8044290514249</v>
       </c>
       <c r="X13" t="n">
-        <v>139.622949382277</v>
+        <v>202.8044290514249</v>
       </c>
       <c r="Y13" t="n">
-        <v>202.804429051425</v>
+        <v>202.8044290514249</v>
       </c>
     </row>
     <row r="14">
@@ -28409,10 +28409,10 @@
         <v>171.025583927401</v>
       </c>
       <c r="D15" t="n">
-        <v>119.2867934108146</v>
+        <v>146.1124235746456</v>
       </c>
       <c r="E15" t="n">
-        <v>156.0334337071738</v>
+        <v>35.56405032410348</v>
       </c>
       <c r="F15" t="n">
         <v>143.5062320835493</v>
@@ -28424,7 +28424,7 @@
         <v>107.7293247704514</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>76.75987979576298</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -28454,7 +28454,7 @@
         <v>77.12411314855667</v>
       </c>
       <c r="S15" t="n">
-        <v>163.7050004481646</v>
+        <v>89.22379247680074</v>
       </c>
       <c r="T15" t="n">
         <v>197.2418405818404</v>
@@ -28463,7 +28463,7 @@
         <v>104.16917521852</v>
       </c>
       <c r="V15" t="n">
-        <v>111.4393476565848</v>
+        <v>202.804429051425</v>
       </c>
       <c r="W15" t="n">
         <v>129.5199633669297</v>
@@ -28530,13 +28530,13 @@
         <v>59.89355583796828</v>
       </c>
       <c r="R16" t="n">
-        <v>99.54167381853097</v>
+        <v>162.723153487679</v>
       </c>
       <c r="S16" t="n">
         <v>202.804429051425</v>
       </c>
       <c r="T16" t="n">
-        <v>202.804429051425</v>
+        <v>139.622949382277</v>
       </c>
       <c r="U16" t="n">
         <v>202.804429051425</v>
@@ -28561,25 +28561,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>328.5332215225194</v>
+        <v>328.5332215225193</v>
       </c>
       <c r="C17" t="n">
-        <v>328.5332215225194</v>
+        <v>328.5332215225193</v>
       </c>
       <c r="D17" t="n">
-        <v>328.5332215225194</v>
+        <v>328.5332215225193</v>
       </c>
       <c r="E17" t="n">
-        <v>328.5332215225194</v>
+        <v>328.5332215225193</v>
       </c>
       <c r="F17" t="n">
-        <v>328.5332215225194</v>
+        <v>328.5332215225193</v>
       </c>
       <c r="G17" t="n">
-        <v>328.5332215225194</v>
+        <v>328.5332215225193</v>
       </c>
       <c r="H17" t="n">
-        <v>328.5332215225194</v>
+        <v>328.5332215225193</v>
       </c>
       <c r="I17" t="n">
         <v>184.8328653437042</v>
@@ -28621,16 +28621,16 @@
         <v>251.4354494490053</v>
       </c>
       <c r="V17" t="n">
-        <v>328.5332215225194</v>
+        <v>328.5332215225193</v>
       </c>
       <c r="W17" t="n">
-        <v>328.5332215225194</v>
+        <v>328.5332215225193</v>
       </c>
       <c r="X17" t="n">
-        <v>328.5332215225194</v>
+        <v>328.5332215225193</v>
       </c>
       <c r="Y17" t="n">
-        <v>328.5332215225194</v>
+        <v>328.5332215225193</v>
       </c>
     </row>
     <row r="18">
@@ -28646,22 +28646,22 @@
         <v>171.025583927401</v>
       </c>
       <c r="D18" t="n">
-        <v>25.64304019157522</v>
+        <v>146.1124235746456</v>
       </c>
       <c r="E18" t="n">
-        <v>35.56405032410349</v>
+        <v>156.0334337071738</v>
       </c>
       <c r="F18" t="n">
-        <v>23.03684870047896</v>
+        <v>143.5062320835493</v>
       </c>
       <c r="G18" t="n">
-        <v>106.7548897925049</v>
+        <v>15.27082614468618</v>
       </c>
       <c r="H18" t="n">
-        <v>107.7293247704514</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>76.75987979576298</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -28688,10 +28688,10 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>77.12411314855667</v>
       </c>
       <c r="S18" t="n">
-        <v>163.7050004481646</v>
+        <v>43.23561706509427</v>
       </c>
       <c r="T18" t="n">
         <v>197.2418405818404</v>
@@ -28709,7 +28709,7 @@
         <v>204.4616296084783</v>
       </c>
       <c r="Y18" t="n">
-        <v>203.671151418586</v>
+        <v>161.5815397179218</v>
       </c>
     </row>
     <row r="19">
@@ -28719,16 +28719,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>61.97332247756563</v>
+        <v>180.0836914906838</v>
       </c>
       <c r="C19" t="n">
-        <v>46.867169548132</v>
+        <v>167.3365529312023</v>
       </c>
       <c r="D19" t="n">
         <v>149.0055665145194</v>
       </c>
       <c r="E19" t="n">
-        <v>26.50524079012884</v>
+        <v>146.9746241731992</v>
       </c>
       <c r="F19" t="n">
         <v>146.1590214098045</v>
@@ -28764,10 +28764,10 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>59.89355583796828</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>162.723153487679</v>
+        <v>42.25377010460862</v>
       </c>
       <c r="S19" t="n">
         <v>218.2226425362118</v>
@@ -28776,10 +28776,10 @@
         <v>227.3187261480809</v>
       </c>
       <c r="U19" t="n">
-        <v>286.0393290313609</v>
+        <v>227.822515856211</v>
       </c>
       <c r="V19" t="n">
-        <v>252.9363510669392</v>
+        <v>132.4669676838688</v>
       </c>
       <c r="W19" t="n">
         <v>286.0925768874155</v>
@@ -28798,25 +28798,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>328.5332215225193</v>
+        <v>328.5332215225194</v>
       </c>
       <c r="C20" t="n">
-        <v>328.5332215225193</v>
+        <v>328.5332215225194</v>
       </c>
       <c r="D20" t="n">
-        <v>328.5332215225193</v>
+        <v>328.5332215225194</v>
       </c>
       <c r="E20" t="n">
-        <v>328.5332215225193</v>
+        <v>328.5332215225194</v>
       </c>
       <c r="F20" t="n">
-        <v>328.5332215225193</v>
+        <v>328.5332215225194</v>
       </c>
       <c r="G20" t="n">
-        <v>328.5332215225193</v>
+        <v>328.5332215225194</v>
       </c>
       <c r="H20" t="n">
-        <v>328.5332215225193</v>
+        <v>328.5332215225194</v>
       </c>
       <c r="I20" t="n">
         <v>184.8328653437042</v>
@@ -28858,16 +28858,16 @@
         <v>251.4354494490053</v>
       </c>
       <c r="V20" t="n">
-        <v>328.5332215225193</v>
+        <v>328.5332215225194</v>
       </c>
       <c r="W20" t="n">
-        <v>328.5332215225193</v>
+        <v>328.5332215225194</v>
       </c>
       <c r="X20" t="n">
-        <v>328.5332215225193</v>
+        <v>328.5332215225194</v>
       </c>
       <c r="Y20" t="n">
-        <v>328.5332215225193</v>
+        <v>328.5332215225194</v>
       </c>
     </row>
     <row r="21">
@@ -28886,10 +28886,10 @@
         <v>146.1124235746456</v>
       </c>
       <c r="E21" t="n">
-        <v>113.9438220065096</v>
+        <v>156.0334337071738</v>
       </c>
       <c r="F21" t="n">
-        <v>23.03684870047896</v>
+        <v>143.5062320835493</v>
       </c>
       <c r="G21" t="n">
         <v>15.27082614468618</v>
@@ -28898,7 +28898,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>76.75987979576298</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -28928,10 +28928,10 @@
         <v>77.12411314855667</v>
       </c>
       <c r="S21" t="n">
-        <v>163.7050004481646</v>
+        <v>43.23561706509427</v>
       </c>
       <c r="T21" t="n">
-        <v>197.2418405818404</v>
+        <v>78.39234908541317</v>
       </c>
       <c r="U21" t="n">
         <v>224.6385586015903</v>
@@ -28956,7 +28956,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>180.0836914906838</v>
+        <v>59.61430810761347</v>
       </c>
       <c r="C22" t="n">
         <v>167.3365529312023</v>
@@ -28977,7 +28977,7 @@
         <v>159.5246303772757</v>
       </c>
       <c r="I22" t="n">
-        <v>146.6235438143066</v>
+        <v>28.51317480118843</v>
       </c>
       <c r="J22" t="n">
         <v>72.06468585899249</v>
@@ -29010,19 +29010,19 @@
         <v>218.2226425362118</v>
       </c>
       <c r="T22" t="n">
-        <v>227.3187261480809</v>
+        <v>106.8493427650106</v>
       </c>
       <c r="U22" t="n">
         <v>286.0393290313609</v>
       </c>
       <c r="V22" t="n">
-        <v>132.4669676838688</v>
+        <v>252.9363510669392</v>
       </c>
       <c r="W22" t="n">
-        <v>165.6231935043452</v>
+        <v>286.0925768874155</v>
       </c>
       <c r="X22" t="n">
-        <v>108.0299909191911</v>
+        <v>226.1403599323093</v>
       </c>
       <c r="Y22" t="n">
         <v>218.7486738677682</v>
@@ -29035,25 +29035,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>328.5332215225193</v>
+        <v>328.5332215225194</v>
       </c>
       <c r="C23" t="n">
-        <v>328.5332215225193</v>
+        <v>328.5332215225194</v>
       </c>
       <c r="D23" t="n">
-        <v>328.5332215225193</v>
+        <v>328.5332215225194</v>
       </c>
       <c r="E23" t="n">
-        <v>328.5332215225193</v>
+        <v>328.5332215225194</v>
       </c>
       <c r="F23" t="n">
-        <v>328.5332215225193</v>
+        <v>328.5332215225194</v>
       </c>
       <c r="G23" t="n">
-        <v>328.5332215225193</v>
+        <v>328.5332215225194</v>
       </c>
       <c r="H23" t="n">
-        <v>328.5332215225193</v>
+        <v>328.5332215225194</v>
       </c>
       <c r="I23" t="n">
         <v>184.8328653437042</v>
@@ -29095,16 +29095,16 @@
         <v>251.4354494490053</v>
       </c>
       <c r="V23" t="n">
-        <v>328.5332215225193</v>
+        <v>328.5332215225194</v>
       </c>
       <c r="W23" t="n">
-        <v>328.5332215225193</v>
+        <v>328.5332215225194</v>
       </c>
       <c r="X23" t="n">
-        <v>328.5332215225193</v>
+        <v>328.5332215225194</v>
       </c>
       <c r="Y23" t="n">
-        <v>328.5332215225193</v>
+        <v>328.5332215225194</v>
       </c>
     </row>
     <row r="24">
@@ -29114,28 +29114,28 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>44.90274222727437</v>
+        <v>165.3721256103448</v>
       </c>
       <c r="C24" t="n">
-        <v>50.55620054433054</v>
+        <v>171.025583927401</v>
       </c>
       <c r="D24" t="n">
-        <v>25.64304019157511</v>
+        <v>146.1124235746456</v>
       </c>
       <c r="E24" t="n">
         <v>156.0334337071738</v>
       </c>
       <c r="F24" t="n">
-        <v>37.39679919974091</v>
+        <v>143.5062320835493</v>
       </c>
       <c r="G24" t="n">
         <v>135.7402095277565</v>
       </c>
       <c r="H24" t="n">
-        <v>107.7293247704514</v>
+        <v>35.03450144789241</v>
       </c>
       <c r="I24" t="n">
-        <v>76.75987979576298</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -29162,13 +29162,13 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>77.12411314855667</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>163.7050004481646</v>
       </c>
       <c r="T24" t="n">
-        <v>197.2418405818404</v>
+        <v>76.77245719877001</v>
       </c>
       <c r="U24" t="n">
         <v>224.6385586015903</v>
@@ -29183,7 +29183,7 @@
         <v>204.4616296084783</v>
       </c>
       <c r="Y24" t="n">
-        <v>203.671151418586</v>
+        <v>83.20176803551567</v>
       </c>
     </row>
     <row r="25">
@@ -29205,7 +29205,7 @@
         <v>146.9746241731992</v>
       </c>
       <c r="F25" t="n">
-        <v>146.1590214098045</v>
+        <v>25.68963802673414</v>
       </c>
       <c r="G25" t="n">
         <v>167.6523306688805</v>
@@ -29214,7 +29214,7 @@
         <v>159.5246303772757</v>
       </c>
       <c r="I25" t="n">
-        <v>26.15416043123615</v>
+        <v>146.6235438143066</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -29250,13 +29250,13 @@
         <v>227.3187261480809</v>
       </c>
       <c r="U25" t="n">
-        <v>179.4178183321333</v>
+        <v>286.0393290313609</v>
       </c>
       <c r="V25" t="n">
         <v>252.9363510669392</v>
       </c>
       <c r="W25" t="n">
-        <v>286.0925768874155</v>
+        <v>179.4710661881878</v>
       </c>
       <c r="X25" t="n">
         <v>226.1403599323093</v>
@@ -29272,76 +29272,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>162.045586647531</v>
+        <v>162.0455866475311</v>
       </c>
       <c r="C26" t="n">
-        <v>162.045586647531</v>
+        <v>162.0455866475311</v>
       </c>
       <c r="D26" t="n">
-        <v>162.045586647531</v>
+        <v>162.0455866475311</v>
       </c>
       <c r="E26" t="n">
-        <v>162.045586647531</v>
+        <v>162.0455866475311</v>
       </c>
       <c r="F26" t="n">
-        <v>162.045586647531</v>
+        <v>162.0455866475311</v>
       </c>
       <c r="G26" t="n">
-        <v>162.045586647531</v>
+        <v>162.0455866475311</v>
       </c>
       <c r="H26" t="n">
-        <v>162.045586647531</v>
+        <v>162.0455866475311</v>
       </c>
       <c r="I26" t="n">
-        <v>162.045586647531</v>
+        <v>162.0455866475311</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>162.0455866475311</v>
       </c>
       <c r="L26" t="n">
-        <v>160.0311887495453</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>162.0455866475311</v>
       </c>
       <c r="N26" t="n">
-        <v>162.045586647531</v>
+        <v>162.0455866475311</v>
       </c>
       <c r="O26" t="n">
-        <v>162.045586647531</v>
+        <v>51.40555122406732</v>
       </c>
       <c r="P26" t="n">
-        <v>162.045586647531</v>
+        <v>162.0455866475311</v>
       </c>
       <c r="Q26" t="n">
-        <v>162.045586647531</v>
+        <v>162.0455866475311</v>
       </c>
       <c r="R26" t="n">
-        <v>162.045586647531</v>
+        <v>108.6256375254776</v>
       </c>
       <c r="S26" t="n">
-        <v>162.045586647531</v>
+        <v>162.0455866475311</v>
       </c>
       <c r="T26" t="n">
-        <v>162.045586647531</v>
+        <v>162.0455866475311</v>
       </c>
       <c r="U26" t="n">
-        <v>162.045586647531</v>
+        <v>162.0455866475311</v>
       </c>
       <c r="V26" t="n">
-        <v>162.045586647531</v>
+        <v>162.0455866475311</v>
       </c>
       <c r="W26" t="n">
-        <v>162.045586647531</v>
+        <v>162.0455866475311</v>
       </c>
       <c r="X26" t="n">
-        <v>162.045586647531</v>
+        <v>162.0455866475311</v>
       </c>
       <c r="Y26" t="n">
-        <v>162.045586647531</v>
+        <v>162.0455866475311</v>
       </c>
     </row>
     <row r="27">
@@ -29354,7 +29354,7 @@
         <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>124.5455725320698</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
@@ -29363,16 +29363,16 @@
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>143.5062320835493</v>
       </c>
       <c r="G27" t="n">
-        <v>6.438486900848233</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>107.7293247704514</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>76.75987979576298</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -29399,19 +29399,19 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>77.12411314855667</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>162.045586647531</v>
+        <v>162.0455866475311</v>
       </c>
       <c r="T27" t="n">
-        <v>162.045586647531</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
         <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>162.0455866475311</v>
       </c>
       <c r="W27" t="n">
         <v>0</v>
@@ -29430,34 +29430,34 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>162.045586647531</v>
+        <v>162.0455866475311</v>
       </c>
       <c r="C28" t="n">
-        <v>162.045586647531</v>
+        <v>162.0455866475311</v>
       </c>
       <c r="D28" t="n">
-        <v>162.045586647531</v>
+        <v>149.0055665145194</v>
       </c>
       <c r="E28" t="n">
-        <v>162.045586647531</v>
+        <v>162.0455866475311</v>
       </c>
       <c r="F28" t="n">
-        <v>162.045586647531</v>
+        <v>146.1590214098045</v>
       </c>
       <c r="G28" t="n">
-        <v>162.045586647531</v>
+        <v>162.0455866475311</v>
       </c>
       <c r="H28" t="n">
-        <v>162.045586647531</v>
+        <v>162.0455866475311</v>
       </c>
       <c r="I28" t="n">
-        <v>162.045586647531</v>
+        <v>162.0455866475311</v>
       </c>
       <c r="J28" t="n">
-        <v>162.045586647531</v>
+        <v>72.06468585899249</v>
       </c>
       <c r="K28" t="n">
-        <v>0</v>
+        <v>162.0455866475311</v>
       </c>
       <c r="L28" t="n">
         <v>0</v>
@@ -29469,37 +29469,37 @@
         <v>0</v>
       </c>
       <c r="O28" t="n">
-        <v>0</v>
+        <v>61.79566975897617</v>
       </c>
       <c r="P28" t="n">
-        <v>2.781739437668733</v>
+        <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>162.045586647531</v>
+        <v>59.89355583796828</v>
       </c>
       <c r="R28" t="n">
-        <v>162.045586647531</v>
+        <v>162.0455866475311</v>
       </c>
       <c r="S28" t="n">
-        <v>162.045586647531</v>
+        <v>162.0455866475311</v>
       </c>
       <c r="T28" t="n">
-        <v>162.045586647531</v>
+        <v>162.0455866475311</v>
       </c>
       <c r="U28" t="n">
-        <v>162.045586647531</v>
+        <v>162.0455866475311</v>
       </c>
       <c r="V28" t="n">
-        <v>162.045586647531</v>
+        <v>162.0455866475311</v>
       </c>
       <c r="W28" t="n">
-        <v>162.045586647531</v>
+        <v>162.0455866475311</v>
       </c>
       <c r="X28" t="n">
-        <v>162.045586647531</v>
+        <v>162.0455866475311</v>
       </c>
       <c r="Y28" t="n">
-        <v>162.045586647531</v>
+        <v>162.0455866475311</v>
       </c>
     </row>
     <row r="29">
@@ -29509,37 +29509,37 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>162.045586647531</v>
+        <v>162.0455866475311</v>
       </c>
       <c r="C29" t="n">
-        <v>162.045586647531</v>
+        <v>162.0455866475311</v>
       </c>
       <c r="D29" t="n">
-        <v>162.045586647531</v>
+        <v>162.0455866475311</v>
       </c>
       <c r="E29" t="n">
-        <v>162.045586647531</v>
+        <v>162.0455866475311</v>
       </c>
       <c r="F29" t="n">
-        <v>162.045586647531</v>
+        <v>162.0455866475311</v>
       </c>
       <c r="G29" t="n">
-        <v>162.045586647531</v>
+        <v>162.0455866475311</v>
       </c>
       <c r="H29" t="n">
-        <v>162.045586647531</v>
+        <v>162.0455866475311</v>
       </c>
       <c r="I29" t="n">
-        <v>162.045586647531</v>
+        <v>162.0455866475311</v>
       </c>
       <c r="J29" t="n">
-        <v>162.045586647531</v>
+        <v>162.0455866475311</v>
       </c>
       <c r="K29" t="n">
-        <v>160.0311887495454</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>162.045586647531</v>
+        <v>162.0455866475311</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
@@ -29548,37 +29548,37 @@
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>162.045586647531</v>
+        <v>162.0455866475311</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>160.0311887495451</v>
       </c>
       <c r="Q29" t="n">
-        <v>162.045586647531</v>
+        <v>162.0455866475311</v>
       </c>
       <c r="R29" t="n">
-        <v>162.045586647531</v>
+        <v>162.0455866475311</v>
       </c>
       <c r="S29" t="n">
-        <v>162.045586647531</v>
+        <v>162.0455866475311</v>
       </c>
       <c r="T29" t="n">
-        <v>162.045586647531</v>
+        <v>162.0455866475311</v>
       </c>
       <c r="U29" t="n">
-        <v>162.045586647531</v>
+        <v>162.0455866475311</v>
       </c>
       <c r="V29" t="n">
-        <v>162.045586647531</v>
+        <v>162.0455866475311</v>
       </c>
       <c r="W29" t="n">
-        <v>162.045586647531</v>
+        <v>162.0455866475311</v>
       </c>
       <c r="X29" t="n">
-        <v>162.045586647531</v>
+        <v>162.0455866475311</v>
       </c>
       <c r="Y29" t="n">
-        <v>162.045586647531</v>
+        <v>162.0455866475311</v>
       </c>
     </row>
     <row r="30">
@@ -29600,7 +29600,7 @@
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>143.5062320835493</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
@@ -29636,28 +29636,28 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>77.12411314855667</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>162.0455866475311</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>47.42145938351325</v>
       </c>
       <c r="U30" t="n">
         <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>106.0062179680877</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>162.045586647531</v>
+        <v>162.0455866475311</v>
       </c>
       <c r="X30" t="n">
-        <v>162.045586647531</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>162.045586647531</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -29667,31 +29667,31 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>162.045586647531</v>
+        <v>162.0455866475311</v>
       </c>
       <c r="C31" t="n">
-        <v>162.045586647531</v>
+        <v>162.0455866475311</v>
       </c>
       <c r="D31" t="n">
-        <v>149.0055665145194</v>
+        <v>162.0455866475311</v>
       </c>
       <c r="E31" t="n">
-        <v>146.9746241731992</v>
+        <v>162.0455866475311</v>
       </c>
       <c r="F31" t="n">
-        <v>146.1590214098045</v>
+        <v>162.0455866475311</v>
       </c>
       <c r="G31" t="n">
-        <v>162.045586647531</v>
+        <v>162.0455866475311</v>
       </c>
       <c r="H31" t="n">
-        <v>162.045586647531</v>
+        <v>162.0455866475311</v>
       </c>
       <c r="I31" t="n">
-        <v>162.045586647531</v>
+        <v>146.6235438143066</v>
       </c>
       <c r="J31" t="n">
-        <v>162.045586647531</v>
+        <v>72.06468585899249</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -29700,13 +29700,13 @@
         <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>0</v>
+        <v>48.29112722146236</v>
       </c>
       <c r="N31" t="n">
-        <v>148.9313180923017</v>
+        <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>0</v>
+        <v>162.0455866475311</v>
       </c>
       <c r="P31" t="n">
         <v>0</v>
@@ -29715,28 +29715,28 @@
         <v>59.89355583796828</v>
       </c>
       <c r="R31" t="n">
-        <v>162.045586647531</v>
+        <v>162.0455866475311</v>
       </c>
       <c r="S31" t="n">
-        <v>162.045586647531</v>
+        <v>162.0455866475311</v>
       </c>
       <c r="T31" t="n">
-        <v>162.045586647531</v>
+        <v>162.0455866475311</v>
       </c>
       <c r="U31" t="n">
-        <v>162.045586647531</v>
+        <v>162.0455866475311</v>
       </c>
       <c r="V31" t="n">
-        <v>162.045586647531</v>
+        <v>162.0455866475311</v>
       </c>
       <c r="W31" t="n">
-        <v>162.045586647531</v>
+        <v>162.0455866475311</v>
       </c>
       <c r="X31" t="n">
-        <v>162.045586647531</v>
+        <v>162.0455866475311</v>
       </c>
       <c r="Y31" t="n">
-        <v>162.045586647531</v>
+        <v>162.0455866475311</v>
       </c>
     </row>
     <row r="32">
@@ -29746,76 +29746,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>162.0455866475311</v>
+        <v>162.045586647531</v>
       </c>
       <c r="C32" t="n">
-        <v>162.0455866475311</v>
+        <v>162.045586647531</v>
       </c>
       <c r="D32" t="n">
-        <v>162.0455866475311</v>
+        <v>162.045586647531</v>
       </c>
       <c r="E32" t="n">
-        <v>162.0455866475311</v>
+        <v>162.045586647531</v>
       </c>
       <c r="F32" t="n">
-        <v>162.0455866475311</v>
+        <v>162.045586647531</v>
       </c>
       <c r="G32" t="n">
-        <v>162.0455866475311</v>
+        <v>162.045586647531</v>
       </c>
       <c r="H32" t="n">
-        <v>162.0455866475311</v>
+        <v>162.045586647531</v>
       </c>
       <c r="I32" t="n">
-        <v>162.0455866475311</v>
+        <v>162.045586647531</v>
       </c>
       <c r="J32" t="n">
-        <v>162.0455866475311</v>
+        <v>162.045586647531</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>162.045586647531</v>
       </c>
       <c r="M32" t="n">
-        <v>162.0455866475311</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>160.031188749545</v>
+        <v>162.045586647531</v>
       </c>
       <c r="O32" t="n">
-        <v>162.0455866475311</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>162.0455866475311</v>
+        <v>162.045586647531</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>160.0311887495452</v>
       </c>
       <c r="R32" t="n">
-        <v>162.0455866475311</v>
+        <v>162.045586647531</v>
       </c>
       <c r="S32" t="n">
-        <v>162.0455866475311</v>
+        <v>162.045586647531</v>
       </c>
       <c r="T32" t="n">
-        <v>162.0455866475311</v>
+        <v>162.045586647531</v>
       </c>
       <c r="U32" t="n">
-        <v>162.0455866475311</v>
+        <v>162.045586647531</v>
       </c>
       <c r="V32" t="n">
-        <v>162.0455866475311</v>
+        <v>162.045586647531</v>
       </c>
       <c r="W32" t="n">
-        <v>162.0455866475311</v>
+        <v>162.045586647531</v>
       </c>
       <c r="X32" t="n">
-        <v>162.0455866475311</v>
+        <v>162.045586647531</v>
       </c>
       <c r="Y32" t="n">
-        <v>162.0455866475311</v>
+        <v>162.045586647531</v>
       </c>
     </row>
     <row r="33">
@@ -29825,10 +29825,10 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>162.045586647531</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>162.045586647531</v>
       </c>
       <c r="D33" t="n">
         <v>0</v>
@@ -29837,13 +29837,13 @@
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>143.5062320835493</v>
       </c>
       <c r="G33" t="n">
-        <v>135.7402095277565</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>107.7293247704514</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -29876,22 +29876,22 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>24.58227031741131</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
         <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>162.0455866475311</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>162.0455866475311</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
         <v>0</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>124.5455725320695</v>
       </c>
       <c r="Y33" t="n">
         <v>0</v>
@@ -29904,34 +29904,34 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>162.0455866475311</v>
+        <v>162.045586647531</v>
       </c>
       <c r="C34" t="n">
-        <v>162.0455866475311</v>
+        <v>162.045586647531</v>
       </c>
       <c r="D34" t="n">
-        <v>162.0455866475311</v>
+        <v>149.0055665145194</v>
       </c>
       <c r="E34" t="n">
-        <v>162.0455866475311</v>
+        <v>146.9746241731992</v>
       </c>
       <c r="F34" t="n">
-        <v>162.0455866475311</v>
+        <v>146.1590214098045</v>
       </c>
       <c r="G34" t="n">
-        <v>162.0455866475311</v>
+        <v>162.045586647531</v>
       </c>
       <c r="H34" t="n">
-        <v>162.0455866475311</v>
+        <v>159.5246303772757</v>
       </c>
       <c r="I34" t="n">
-        <v>162.0455866475311</v>
+        <v>146.6235438143066</v>
       </c>
       <c r="J34" t="n">
-        <v>162.0455866475311</v>
+        <v>72.06468585899249</v>
       </c>
       <c r="K34" t="n">
-        <v>2.781739437667616</v>
+        <v>162.045586647531</v>
       </c>
       <c r="L34" t="n">
         <v>0</v>
@@ -29940,7 +29940,7 @@
         <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>0</v>
+        <v>94.80963133678821</v>
       </c>
       <c r="O34" t="n">
         <v>0</v>
@@ -29949,31 +29949,31 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>162.0455866475311</v>
+        <v>59.89355583796828</v>
       </c>
       <c r="R34" t="n">
-        <v>162.0455866475311</v>
+        <v>162.045586647531</v>
       </c>
       <c r="S34" t="n">
-        <v>162.0455866475311</v>
+        <v>162.045586647531</v>
       </c>
       <c r="T34" t="n">
-        <v>162.0455866475311</v>
+        <v>162.045586647531</v>
       </c>
       <c r="U34" t="n">
-        <v>162.0455866475311</v>
+        <v>162.045586647531</v>
       </c>
       <c r="V34" t="n">
-        <v>162.0455866475311</v>
+        <v>162.045586647531</v>
       </c>
       <c r="W34" t="n">
-        <v>162.0455866475311</v>
+        <v>162.045586647531</v>
       </c>
       <c r="X34" t="n">
-        <v>162.0455866475311</v>
+        <v>162.045586647531</v>
       </c>
       <c r="Y34" t="n">
-        <v>162.0455866475311</v>
+        <v>162.045586647531</v>
       </c>
     </row>
     <row r="35">
@@ -29983,25 +29983,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>193.8120369573058</v>
+        <v>193.8120369573057</v>
       </c>
       <c r="C35" t="n">
-        <v>193.8120369573058</v>
+        <v>193.8120369573057</v>
       </c>
       <c r="D35" t="n">
-        <v>193.8120369573058</v>
+        <v>193.8120369573057</v>
       </c>
       <c r="E35" t="n">
-        <v>193.8120369573058</v>
+        <v>193.8120369573057</v>
       </c>
       <c r="F35" t="n">
-        <v>193.8120369573058</v>
+        <v>193.8120369573057</v>
       </c>
       <c r="G35" t="n">
-        <v>193.8120369573058</v>
+        <v>193.8120369573057</v>
       </c>
       <c r="H35" t="n">
-        <v>193.8120369573058</v>
+        <v>193.8120369573057</v>
       </c>
       <c r="I35" t="n">
         <v>184.8328653437042</v>
@@ -30010,10 +30010,10 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>190.8113638057952</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>193.8120369573058</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
@@ -30025,34 +30025,34 @@
         <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>193.8120369573057</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>190.8113638057951</v>
       </c>
       <c r="R35" t="n">
         <v>108.6256375254776</v>
       </c>
       <c r="S35" t="n">
-        <v>193.8120369573058</v>
+        <v>193.8120369573057</v>
       </c>
       <c r="T35" t="n">
-        <v>193.8120369573058</v>
+        <v>193.8120369573057</v>
       </c>
       <c r="U35" t="n">
-        <v>193.8120369573058</v>
+        <v>193.8120369573057</v>
       </c>
       <c r="V35" t="n">
-        <v>193.8120369573058</v>
+        <v>193.8120369573057</v>
       </c>
       <c r="W35" t="n">
-        <v>193.8120369573058</v>
+        <v>193.8120369573057</v>
       </c>
       <c r="X35" t="n">
-        <v>193.8120369573058</v>
+        <v>193.8120369573057</v>
       </c>
       <c r="Y35" t="n">
-        <v>193.8120369573058</v>
+        <v>193.8120369573057</v>
       </c>
     </row>
     <row r="36">
@@ -30065,7 +30065,7 @@
         <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>171.025583927401</v>
       </c>
       <c r="D36" t="n">
         <v>0</v>
@@ -30077,13 +30077,13 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>135.7402095277565</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
         <v>107.7293247704514</v>
       </c>
       <c r="I36" t="n">
-        <v>76.75987979576298</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -30110,22 +30110,22 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>77.12411314855667</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>107.0664037277802</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
         <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>193.8120369573058</v>
+        <v>71.41679597534213</v>
       </c>
       <c r="W36" t="n">
-        <v>0</v>
+        <v>193.8120369573057</v>
       </c>
       <c r="X36" t="n">
         <v>0</v>
@@ -30192,25 +30192,25 @@
         <v>162.723153487679</v>
       </c>
       <c r="S37" t="n">
-        <v>193.8120369573058</v>
+        <v>193.8120369573057</v>
       </c>
       <c r="T37" t="n">
-        <v>193.8120369573058</v>
+        <v>193.8120369573057</v>
       </c>
       <c r="U37" t="n">
-        <v>193.8120369573058</v>
+        <v>193.8120369573057</v>
       </c>
       <c r="V37" t="n">
-        <v>193.8120369573058</v>
+        <v>193.5773019469925</v>
       </c>
       <c r="W37" t="n">
-        <v>193.8120369573058</v>
+        <v>193.8120369573057</v>
       </c>
       <c r="X37" t="n">
-        <v>193.8120369573058</v>
+        <v>193.8120369573057</v>
       </c>
       <c r="Y37" t="n">
-        <v>193.5773019469924</v>
+        <v>193.8120369573057</v>
       </c>
     </row>
     <row r="38">
@@ -30220,28 +30220,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>193.8120369573057</v>
+        <v>193.8120369573058</v>
       </c>
       <c r="C38" t="n">
-        <v>193.8120369573057</v>
+        <v>193.8120369573058</v>
       </c>
       <c r="D38" t="n">
-        <v>193.8120369573057</v>
+        <v>193.8120369573058</v>
       </c>
       <c r="E38" t="n">
-        <v>193.8120369573057</v>
+        <v>193.8120369573058</v>
       </c>
       <c r="F38" t="n">
-        <v>193.8120369573057</v>
+        <v>193.8120369573058</v>
       </c>
       <c r="G38" t="n">
-        <v>193.8120369573057</v>
+        <v>193.8120369573058</v>
       </c>
       <c r="H38" t="n">
-        <v>193.8120369573057</v>
+        <v>193.8120369573058</v>
       </c>
       <c r="I38" t="n">
-        <v>184.8328653437042</v>
+        <v>193.8120369573058</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30250,46 +30250,46 @@
         <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>105.624964373967</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>193.8120369573058</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>181.8321921921938</v>
       </c>
       <c r="P38" t="n">
-        <v>193.8120369573057</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>193.8120369573057</v>
+        <v>108.6256375254776</v>
       </c>
       <c r="S38" t="n">
-        <v>193.8120369573057</v>
+        <v>193.8120369573058</v>
       </c>
       <c r="T38" t="n">
-        <v>193.8120369573057</v>
+        <v>193.8120369573058</v>
       </c>
       <c r="U38" t="n">
-        <v>193.8120369573057</v>
+        <v>193.8120369573058</v>
       </c>
       <c r="V38" t="n">
-        <v>193.8120369573057</v>
+        <v>193.8120369573058</v>
       </c>
       <c r="W38" t="n">
-        <v>193.8120369573057</v>
+        <v>193.8120369573058</v>
       </c>
       <c r="X38" t="n">
-        <v>193.8120369573057</v>
+        <v>193.8120369573058</v>
       </c>
       <c r="Y38" t="n">
-        <v>193.8120369573057</v>
+        <v>193.8120369573058</v>
       </c>
     </row>
     <row r="39">
@@ -30299,13 +30299,13 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>165.3721256103448</v>
       </c>
       <c r="C39" t="n">
         <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>146.1124235746456</v>
       </c>
       <c r="E39" t="n">
         <v>0</v>
@@ -30314,13 +30314,13 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>135.7402095277565</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>107.7293247704514</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>76.75987979576298</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -30347,13 +30347,13 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>77.12411314855667</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>163.7050004481646</v>
+        <v>115.8112686367611</v>
       </c>
       <c r="T39" t="n">
-        <v>60.04932708836472</v>
+        <v>193.8120369573058</v>
       </c>
       <c r="U39" t="n">
         <v>0</v>
@@ -30429,25 +30429,25 @@
         <v>162.723153487679</v>
       </c>
       <c r="S40" t="n">
-        <v>193.5773019469925</v>
+        <v>193.8120369573058</v>
       </c>
       <c r="T40" t="n">
-        <v>193.8120369573057</v>
+        <v>193.8120369573058</v>
       </c>
       <c r="U40" t="n">
-        <v>193.8120369573057</v>
+        <v>193.8120369573058</v>
       </c>
       <c r="V40" t="n">
-        <v>193.8120369573057</v>
+        <v>193.8120369573058</v>
       </c>
       <c r="W40" t="n">
-        <v>193.8120369573057</v>
+        <v>193.8120369573058</v>
       </c>
       <c r="X40" t="n">
-        <v>193.8120369573057</v>
+        <v>193.8120369573058</v>
       </c>
       <c r="Y40" t="n">
-        <v>193.8120369573057</v>
+        <v>193.5773019469924</v>
       </c>
     </row>
     <row r="41">
@@ -30457,31 +30457,31 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>193.8120369573057</v>
+        <v>193.8120369573058</v>
       </c>
       <c r="C41" t="n">
-        <v>193.8120369573057</v>
+        <v>193.8120369573058</v>
       </c>
       <c r="D41" t="n">
-        <v>193.8120369573057</v>
+        <v>193.8120369573058</v>
       </c>
       <c r="E41" t="n">
-        <v>193.8120369573057</v>
+        <v>193.8120369573058</v>
       </c>
       <c r="F41" t="n">
-        <v>193.8120369573057</v>
+        <v>193.8120369573058</v>
       </c>
       <c r="G41" t="n">
-        <v>193.8120369573057</v>
+        <v>193.8120369573058</v>
       </c>
       <c r="H41" t="n">
-        <v>193.8120369573057</v>
+        <v>193.8120369573058</v>
       </c>
       <c r="I41" t="n">
-        <v>184.8328653437042</v>
+        <v>193.8120369573058</v>
       </c>
       <c r="J41" t="n">
-        <v>193.8120369573057</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -30490,10 +30490,10 @@
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>181.8321921921942</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>193.8120369573058</v>
       </c>
       <c r="O41" t="n">
         <v>0</v>
@@ -30502,31 +30502,31 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>105.6249643739674</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>193.8120369573057</v>
+        <v>108.6256375254776</v>
       </c>
       <c r="S41" t="n">
-        <v>193.8120369573057</v>
+        <v>193.8120369573058</v>
       </c>
       <c r="T41" t="n">
-        <v>193.8120369573057</v>
+        <v>193.8120369573058</v>
       </c>
       <c r="U41" t="n">
-        <v>193.8120369573057</v>
+        <v>193.8120369573058</v>
       </c>
       <c r="V41" t="n">
-        <v>193.8120369573057</v>
+        <v>193.8120369573058</v>
       </c>
       <c r="W41" t="n">
-        <v>193.8120369573057</v>
+        <v>193.8120369573058</v>
       </c>
       <c r="X41" t="n">
-        <v>193.8120369573057</v>
+        <v>193.8120369573058</v>
       </c>
       <c r="Y41" t="n">
-        <v>193.8120369573057</v>
+        <v>193.8120369573058</v>
       </c>
     </row>
     <row r="42">
@@ -30542,16 +30542,16 @@
         <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>146.1124235746456</v>
       </c>
       <c r="E42" t="n">
         <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>143.5062320835493</v>
       </c>
       <c r="G42" t="n">
-        <v>135.7402095277565</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -30587,10 +30587,10 @@
         <v>77.12411314855667</v>
       </c>
       <c r="S42" t="n">
-        <v>20.61945818813192</v>
+        <v>60.55304901499936</v>
       </c>
       <c r="T42" t="n">
-        <v>193.8120369573057</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
         <v>0</v>
@@ -30599,13 +30599,13 @@
         <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>0</v>
+        <v>193.8120369573058</v>
       </c>
       <c r="X42" t="n">
         <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>193.8120369573057</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -30660,31 +30660,31 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>59.89355583796828</v>
+        <v>59.65882082765496</v>
       </c>
       <c r="R43" t="n">
         <v>162.723153487679</v>
       </c>
       <c r="S43" t="n">
-        <v>193.5773019469927</v>
+        <v>193.8120369573058</v>
       </c>
       <c r="T43" t="n">
-        <v>193.8120369573057</v>
+        <v>193.8120369573058</v>
       </c>
       <c r="U43" t="n">
-        <v>193.8120369573057</v>
+        <v>193.8120369573058</v>
       </c>
       <c r="V43" t="n">
-        <v>193.8120369573057</v>
+        <v>193.8120369573058</v>
       </c>
       <c r="W43" t="n">
-        <v>193.8120369573057</v>
+        <v>193.8120369573058</v>
       </c>
       <c r="X43" t="n">
-        <v>193.8120369573057</v>
+        <v>193.8120369573058</v>
       </c>
       <c r="Y43" t="n">
-        <v>193.8120369573057</v>
+        <v>193.8120369573058</v>
       </c>
     </row>
     <row r="44">
@@ -30715,10 +30715,10 @@
         <v>193.8120369573057</v>
       </c>
       <c r="I44" t="n">
-        <v>184.8328653437042</v>
+        <v>193.8120369573057</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>193.8120369573057</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -30730,7 +30730,7 @@
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>193.8120369573057</v>
+        <v>181.8321921921936</v>
       </c>
       <c r="O44" t="n">
         <v>0</v>
@@ -30739,7 +30739,7 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>190.8113638057953</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
         <v>108.6256375254776</v>
@@ -30773,13 +30773,13 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>147.9364135698363</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>171.025583927401</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>146.1124235746456</v>
       </c>
       <c r="E45" t="n">
         <v>156.0334337071738</v>
@@ -30788,7 +30788,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>135.7402095277565</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -30821,13 +30821,13 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>77.12411314855666</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>163.7050004481646</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>88.50509794740529</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
         <v>0</v>
@@ -30897,13 +30897,13 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>59.89355583796826</v>
+        <v>59.65882082765505</v>
       </c>
       <c r="R46" t="n">
         <v>162.723153487679</v>
       </c>
       <c r="S46" t="n">
-        <v>193.5773019469925</v>
+        <v>193.8120369573057</v>
       </c>
       <c r="T46" t="n">
         <v>193.8120369573057</v>
@@ -35413,22 +35413,22 @@
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>120.4693833830704</v>
       </c>
       <c r="M11" t="n">
-        <v>54.42426913701331</v>
+        <v>120.4693833830704</v>
       </c>
       <c r="N11" t="n">
-        <v>120.4693833830704</v>
+        <v>115.601933549411</v>
       </c>
       <c r="O11" t="n">
         <v>120.4693833830704</v>
       </c>
       <c r="P11" t="n">
-        <v>120.4693833830704</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>61.17766441239765</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35486,7 +35486,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>34.20534860233022</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -35498,13 +35498,13 @@
         <v>120.4693833830704</v>
       </c>
       <c r="N12" t="n">
-        <v>120.4693833830704</v>
+        <v>81.39658494708075</v>
       </c>
       <c r="O12" t="n">
         <v>120.4693833830704</v>
       </c>
       <c r="P12" t="n">
-        <v>115.6019335494109</v>
+        <v>120.4693833830704</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35647,22 +35647,22 @@
         <v>44.23270639327568</v>
       </c>
       <c r="K14" t="n">
-        <v>120.4693833830703</v>
+        <v>10.19156274373763</v>
       </c>
       <c r="L14" t="n">
-        <v>120.4693833830703</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>10.1915627437376</v>
+        <v>120.4693833830704</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>120.4693833830704</v>
       </c>
       <c r="O14" t="n">
         <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>120.4693833830703</v>
+        <v>120.4693833830704</v>
       </c>
       <c r="Q14" t="n">
         <v>61.17766441239765</v>
@@ -35726,25 +35726,25 @@
         <v>34.20534860233022</v>
       </c>
       <c r="K15" t="n">
-        <v>81.39658494708074</v>
+        <v>120.4693833830704</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>120.4693833830703</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>120.4693833830703</v>
+        <v>120.4693833830704</v>
       </c>
       <c r="O15" t="n">
-        <v>120.4693833830703</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>83.74303060941396</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>118.1229377207371</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35881,16 +35881,16 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>44.23270639327568</v>
       </c>
       <c r="K17" t="n">
         <v>120.4693833830703</v>
       </c>
       <c r="L17" t="n">
-        <v>115.6019335494109</v>
+        <v>10.1915627437376</v>
       </c>
       <c r="M17" t="n">
-        <v>120.4693833830703</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
         <v>120.4693833830703</v>
@@ -35899,10 +35899,10 @@
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>120.4693833830703</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>61.17766441239765</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35960,13 +35960,13 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>34.20534860233022</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>120.4693833830703</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>81.39658494708075</v>
       </c>
       <c r="M18" t="n">
         <v>120.4693833830703</v>
@@ -35975,10 +35975,10 @@
         <v>120.4693833830703</v>
       </c>
       <c r="O18" t="n">
-        <v>120.4693833830703</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>115.6019335494109</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36121,25 +36121,25 @@
         <v>44.23270639327568</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>120.4693833830703</v>
       </c>
       <c r="L20" t="n">
-        <v>71.36922715613528</v>
+        <v>10.1915627437376</v>
       </c>
       <c r="M20" t="n">
         <v>120.4693833830703</v>
       </c>
       <c r="N20" t="n">
+        <v>0</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0</v>
+      </c>
+      <c r="P20" t="n">
         <v>120.4693833830703</v>
       </c>
-      <c r="O20" t="n">
-        <v>120.4693833830703</v>
-      </c>
-      <c r="P20" t="n">
-        <v>0</v>
-      </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>61.17766441239765</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>34.20534860233022</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>120.4693833830703</v>
       </c>
       <c r="L21" t="n">
+        <v>0</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0</v>
+      </c>
+      <c r="O21" t="n">
+        <v>83.74303060941396</v>
+      </c>
+      <c r="P21" t="n">
         <v>120.4693833830703</v>
       </c>
-      <c r="M21" t="n">
-        <v>120.4693833830703</v>
-      </c>
-      <c r="N21" t="n">
-        <v>120.4693833830703</v>
-      </c>
-      <c r="O21" t="n">
-        <v>115.6019335494109</v>
-      </c>
-      <c r="P21" t="n">
-        <v>0</v>
-      </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>118.1229377207371</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36358,25 +36358,25 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>120.4693833830705</v>
+        <v>120.4693833830704</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>120.4693833830704</v>
       </c>
       <c r="M23" t="n">
-        <v>120.4693833830705</v>
+        <v>54.42426913701332</v>
       </c>
       <c r="N23" t="n">
-        <v>115.601933549411</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>120.4693833830705</v>
+        <v>120.4693833830704</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>61.17766441239765</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -36437,22 +36437,22 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>120.4693833830704</v>
       </c>
       <c r="L24" t="n">
-        <v>120.4693833830705</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>120.4693833830705</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
+        <v>120.4693833830704</v>
+      </c>
+      <c r="O24" t="n">
         <v>115.601933549411</v>
       </c>
-      <c r="O24" t="n">
-        <v>120.4693833830705</v>
-      </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>120.4693833830704</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36595,28 +36595,28 @@
         <v>44.23270639327568</v>
       </c>
       <c r="K26" t="n">
-        <v>189.8050705671531</v>
+        <v>351.8506572146841</v>
       </c>
       <c r="L26" t="n">
-        <v>447.9951808067323</v>
+        <v>287.9639920571869</v>
       </c>
       <c r="M26" t="n">
-        <v>335.7813792767184</v>
+        <v>497.8269659242494</v>
       </c>
       <c r="N26" t="n">
         <v>487.586345555965</v>
       </c>
       <c r="O26" t="n">
-        <v>422.8501997298188</v>
+        <v>312.2101643063551</v>
       </c>
       <c r="P26" t="n">
-        <v>347.3243776943737</v>
+        <v>347.3243776943738</v>
       </c>
       <c r="Q26" t="n">
         <v>223.2232510599287</v>
       </c>
       <c r="R26" t="n">
-        <v>53.41994912205338</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36732,28 +36732,28 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>13.04002013301164</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>15.07096247433182</v>
+        <v>15.07096247433188</v>
       </c>
       <c r="F28" t="n">
-        <v>15.8865652377265</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>2.520956270255305</v>
+        <v>2.520956270255362</v>
       </c>
       <c r="I28" t="n">
-        <v>15.4220428332244</v>
+        <v>15.42204283322445</v>
       </c>
       <c r="J28" t="n">
-        <v>89.98090078853851</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>12.79068645023797</v>
+        <v>174.836273097769</v>
       </c>
       <c r="L28" t="n">
         <v>72.73496299369148</v>
@@ -36765,13 +36765,13 @@
         <v>90.50400431230182</v>
       </c>
       <c r="O28" t="n">
-        <v>68.10358480784063</v>
+        <v>129.8992545668168</v>
       </c>
       <c r="P28" t="n">
-        <v>37.59906958518049</v>
+        <v>34.81733014751176</v>
       </c>
       <c r="Q28" t="n">
-        <v>102.1520308095627</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36832,10 +36832,10 @@
         <v>206.2782930408067</v>
       </c>
       <c r="K29" t="n">
-        <v>349.8362593166985</v>
+        <v>189.8050705671531</v>
       </c>
       <c r="L29" t="n">
-        <v>450.0095787047179</v>
+        <v>450.009578704718</v>
       </c>
       <c r="M29" t="n">
         <v>335.7813792767184</v>
@@ -36844,16 +36844,16 @@
         <v>325.5407589084339</v>
       </c>
       <c r="O29" t="n">
-        <v>422.8501997298187</v>
+        <v>422.8501997298188</v>
       </c>
       <c r="P29" t="n">
-        <v>185.2787910468427</v>
+        <v>345.3099797963878</v>
       </c>
       <c r="Q29" t="n">
-        <v>223.2232510599286</v>
+        <v>223.2232510599287</v>
       </c>
       <c r="R29" t="n">
-        <v>53.41994912205335</v>
+        <v>53.41994912205344</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36969,25 +36969,25 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>13.04002013301169</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>15.07096247433188</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>15.88656523772656</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>2.520956270255277</v>
+        <v>2.520956270255362</v>
       </c>
       <c r="I31" t="n">
-        <v>15.42204283322437</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>89.98090078853848</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
         <v>12.79068645023797</v>
@@ -36996,13 +36996,13 @@
         <v>72.73496299369148</v>
       </c>
       <c r="M31" t="n">
-        <v>87.38871889096599</v>
+        <v>135.6798461124284</v>
       </c>
       <c r="N31" t="n">
-        <v>239.4353224046035</v>
+        <v>90.50400431230182</v>
       </c>
       <c r="O31" t="n">
-        <v>68.10358480784063</v>
+        <v>230.1491714553717</v>
       </c>
       <c r="P31" t="n">
         <v>34.81733014751176</v>
@@ -37072,25 +37072,25 @@
         <v>189.8050705671531</v>
       </c>
       <c r="L32" t="n">
-        <v>287.9639920571869</v>
+        <v>450.009578704718</v>
       </c>
       <c r="M32" t="n">
-        <v>497.8269659242494</v>
+        <v>335.7813792767184</v>
       </c>
       <c r="N32" t="n">
-        <v>485.571947657979</v>
+        <v>487.586345555965</v>
       </c>
       <c r="O32" t="n">
-        <v>422.8501997298188</v>
+        <v>260.8046130822878</v>
       </c>
       <c r="P32" t="n">
-        <v>347.3243776943738</v>
+        <v>347.3243776943737</v>
       </c>
       <c r="Q32" t="n">
-        <v>61.17766441239765</v>
+        <v>221.2088531619429</v>
       </c>
       <c r="R32" t="n">
-        <v>53.41994912205344</v>
+        <v>53.41994912205341</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37206,28 +37206,28 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>13.04002013301169</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>15.07096247433188</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>15.88656523772656</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>2.520956270255362</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>15.42204283322445</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>89.98090078853856</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>15.57242588790559</v>
+        <v>174.836273097769</v>
       </c>
       <c r="L34" t="n">
         <v>72.73496299369148</v>
@@ -37236,7 +37236,7 @@
         <v>87.38871889096599</v>
       </c>
       <c r="N34" t="n">
-        <v>90.50400431230182</v>
+        <v>185.31363564909</v>
       </c>
       <c r="O34" t="n">
         <v>68.10358480784063</v>
@@ -37245,7 +37245,7 @@
         <v>34.81733014751176</v>
       </c>
       <c r="Q34" t="n">
-        <v>102.1520308095628</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37306,10 +37306,10 @@
         <v>44.23270639327568</v>
       </c>
       <c r="K35" t="n">
-        <v>380.6164343729483</v>
+        <v>189.8050705671531</v>
       </c>
       <c r="L35" t="n">
-        <v>481.7760290144927</v>
+        <v>287.9639920571869</v>
       </c>
       <c r="M35" t="n">
         <v>335.7813792767184</v>
@@ -37321,10 +37321,10 @@
         <v>260.8046130822878</v>
       </c>
       <c r="P35" t="n">
-        <v>185.2787910468427</v>
+        <v>379.0908280041484</v>
       </c>
       <c r="Q35" t="n">
-        <v>61.17766441239765</v>
+        <v>251.9890282181928</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -37385,7 +37385,7 @@
         <v>34.20534860233022</v>
       </c>
       <c r="K36" t="n">
-        <v>186.3468467195358</v>
+        <v>156.7938655253964</v>
       </c>
       <c r="L36" t="n">
         <v>312.0305815014212</v>
@@ -37403,7 +37403,7 @@
         <v>254.6169492077444</v>
       </c>
       <c r="Q36" t="n">
-        <v>88.56995652659779</v>
+        <v>118.1229377207371</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37537,7 +37537,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>8.97917161360159</v>
       </c>
       <c r="J38" t="n">
         <v>44.23270639327568</v>
@@ -37546,25 +37546,25 @@
         <v>189.8050705671531</v>
       </c>
       <c r="L38" t="n">
-        <v>393.588956431154</v>
+        <v>287.9639920571869</v>
       </c>
       <c r="M38" t="n">
         <v>335.7813792767184</v>
       </c>
       <c r="N38" t="n">
-        <v>325.5407589084339</v>
+        <v>519.3527958657397</v>
       </c>
       <c r="O38" t="n">
-        <v>260.8046130822878</v>
+        <v>442.6368052744816</v>
       </c>
       <c r="P38" t="n">
-        <v>379.0908280041484</v>
+        <v>185.2787910468427</v>
       </c>
       <c r="Q38" t="n">
         <v>61.17766441239765</v>
       </c>
       <c r="R38" t="n">
-        <v>85.18639943182812</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37631,7 +37631,7 @@
         <v>417.4585004488436</v>
       </c>
       <c r="N39" t="n">
-        <v>444.0616595201291</v>
+        <v>414.5086783259898</v>
       </c>
       <c r="O39" t="n">
         <v>337.9185339807949</v>
@@ -37640,7 +37640,7 @@
         <v>254.6169492077444</v>
       </c>
       <c r="Q39" t="n">
-        <v>88.56995652659779</v>
+        <v>118.1229377207371</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37774,10 +37774,10 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>8.97917161360159</v>
       </c>
       <c r="J41" t="n">
-        <v>238.0447433505814</v>
+        <v>44.23270639327568</v>
       </c>
       <c r="K41" t="n">
         <v>189.8050705671531</v>
@@ -37786,10 +37786,10 @@
         <v>287.9639920571869</v>
       </c>
       <c r="M41" t="n">
-        <v>335.7813792767184</v>
+        <v>517.6135714689126</v>
       </c>
       <c r="N41" t="n">
-        <v>325.5407589084339</v>
+        <v>519.3527958657397</v>
       </c>
       <c r="O41" t="n">
         <v>260.8046130822878</v>
@@ -37798,10 +37798,10 @@
         <v>185.2787910468427</v>
       </c>
       <c r="Q41" t="n">
-        <v>166.8026287863651</v>
+        <v>61.17766441239765</v>
       </c>
       <c r="R41" t="n">
-        <v>85.18639943182809</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37868,7 +37868,7 @@
         <v>417.4585004488436</v>
       </c>
       <c r="N42" t="n">
-        <v>444.0616595201291</v>
+        <v>414.5086783259902</v>
       </c>
       <c r="O42" t="n">
         <v>337.9185339807949</v>
@@ -37877,7 +37877,7 @@
         <v>254.6169492077444</v>
       </c>
       <c r="Q42" t="n">
-        <v>88.56995652659825</v>
+        <v>118.1229377207371</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38011,10 +38011,10 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>8.979171613601551</v>
       </c>
       <c r="J44" t="n">
-        <v>44.23270639327573</v>
+        <v>238.0447433505814</v>
       </c>
       <c r="K44" t="n">
         <v>189.8050705671532</v>
@@ -38026,7 +38026,7 @@
         <v>335.7813792767185</v>
       </c>
       <c r="N44" t="n">
-        <v>519.3527958657397</v>
+        <v>507.3729511006276</v>
       </c>
       <c r="O44" t="n">
         <v>260.8046130822879</v>
@@ -38035,7 +38035,7 @@
         <v>185.2787910468427</v>
       </c>
       <c r="Q44" t="n">
-        <v>251.989028218193</v>
+        <v>61.1776644123977</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
